--- a/database/industries/palayesh/shavan/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED67550-325A-47E4-8307-A1B1F35BA4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -99,18 +100,18 @@
     <t>متر مکعب</t>
   </si>
   <si>
+    <t>ماده افزودنی ، MTBE</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>ماده افزودنی ، MTBE</t>
+    <t>میعانات</t>
   </si>
   <si>
     <t>بشکه</t>
   </si>
   <si>
-    <t>میعانات</t>
-  </si>
-  <si>
     <t>mtbe</t>
   </si>
   <si>
@@ -136,6 +137,36 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>متر مکعب / ریال</t>
+  </si>
+  <si>
+    <t>بشکه / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -240,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,7 +441,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -422,7 +453,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -469,6 +500,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -504,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,17 +720,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,7 +740,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +752,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,7 +764,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -709,7 +774,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,7 +786,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,7 +798,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -743,7 +808,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -765,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,95 +840,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>66623097</v>
+        <v>75641844</v>
       </c>
       <c r="F10" s="9">
-        <v>75641844</v>
+        <v>91245526</v>
       </c>
       <c r="G10" s="9">
-        <v>91245526</v>
+        <v>115459926</v>
       </c>
       <c r="H10" s="9">
-        <v>115459926</v>
+        <v>114186233</v>
       </c>
       <c r="I10" s="9">
-        <v>114186233</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101578673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>580777</v>
+        <v>385252</v>
       </c>
       <c r="F11" s="11">
-        <v>385252</v>
+        <v>348791</v>
       </c>
       <c r="G11" s="11">
-        <v>348791</v>
+        <v>365548</v>
       </c>
       <c r="H11" s="11">
-        <v>365548</v>
+        <v>806958</v>
       </c>
       <c r="I11" s="11">
-        <v>806958</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>501206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1492187</v>
+        <v>1587613</v>
       </c>
       <c r="F12" s="9">
-        <v>1587613</v>
+        <v>2651659</v>
       </c>
       <c r="G12" s="9">
-        <v>2651659</v>
+        <v>2303389</v>
       </c>
       <c r="H12" s="9">
-        <v>2303389</v>
+        <v>2714810</v>
       </c>
       <c r="I12" s="9">
-        <v>2714810</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2195667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>68696061</v>
+        <v>77614709</v>
       </c>
       <c r="F13" s="13">
-        <v>77614709</v>
+        <v>94245976</v>
       </c>
       <c r="G13" s="13">
-        <v>94245976</v>
+        <v>118128863</v>
       </c>
       <c r="H13" s="13">
-        <v>118128863</v>
+        <v>117708001</v>
       </c>
       <c r="I13" s="13">
-        <v>117708001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104275546</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -885,51 +950,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>68696061</v>
+        <v>77614709</v>
       </c>
       <c r="F15" s="13">
-        <v>77614709</v>
+        <v>94245976</v>
       </c>
       <c r="G15" s="13">
-        <v>94245976</v>
+        <v>118128863</v>
       </c>
       <c r="H15" s="13">
-        <v>118128863</v>
+        <v>117708001</v>
       </c>
       <c r="I15" s="13">
-        <v>117708001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104275546</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-249761</v>
+        <v>139778</v>
       </c>
       <c r="F16" s="9">
-        <v>139778</v>
+        <v>-132338</v>
       </c>
       <c r="G16" s="9">
-        <v>-132338</v>
+        <v>-29925</v>
       </c>
       <c r="H16" s="9">
-        <v>-29925</v>
+        <v>-223242</v>
       </c>
       <c r="I16" s="9">
-        <v>-223242</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-76107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -951,29 +1016,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>68446300</v>
+        <v>77754487</v>
       </c>
       <c r="F18" s="15">
-        <v>77754487</v>
+        <v>94113638</v>
       </c>
       <c r="G18" s="15">
-        <v>94113638</v>
+        <v>118098938</v>
       </c>
       <c r="H18" s="15">
-        <v>118098938</v>
+        <v>117484759</v>
       </c>
       <c r="I18" s="15">
-        <v>117484759</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104199439</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -983,63 +1048,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>1244588</v>
       </c>
       <c r="G19" s="11">
-        <v>29059601</v>
+        <v>27381432</v>
       </c>
       <c r="H19" s="11">
-        <v>27381432</v>
+        <v>36074176</v>
       </c>
       <c r="I19" s="11">
-        <v>36074176</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32561845</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-2080428</v>
+        <v>-1244588</v>
       </c>
       <c r="F20" s="9">
-        <v>-1244588</v>
+        <v>-27381432</v>
       </c>
       <c r="G20" s="9">
-        <v>-27381432</v>
+        <v>-36074176</v>
       </c>
       <c r="H20" s="9">
-        <v>-36074176</v>
+        <v>-32561845</v>
       </c>
       <c r="I20" s="9">
-        <v>-32561845</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-35862478</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>66365872</v>
+        <v>76509899</v>
       </c>
       <c r="F21" s="13">
-        <v>76509899</v>
+        <v>95791807</v>
       </c>
       <c r="G21" s="13">
-        <v>95791807</v>
+        <v>109406194</v>
       </c>
       <c r="H21" s="13">
-        <v>109406194</v>
+        <v>120997090</v>
       </c>
       <c r="I21" s="13">
-        <v>120997090</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100898806</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1061,29 +1126,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>66365872</v>
+        <v>76509899</v>
       </c>
       <c r="F23" s="13">
-        <v>76509899</v>
+        <v>95791807</v>
       </c>
       <c r="G23" s="13">
-        <v>95791807</v>
+        <v>109406194</v>
       </c>
       <c r="H23" s="13">
-        <v>109406194</v>
+        <v>120997090</v>
       </c>
       <c r="I23" s="13">
-        <v>120997090</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100898806</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1093,7 +1158,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1103,7 +1168,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1113,7 +1178,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1145,7 +1210,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1153,71 +1218,71 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>115608</v>
+      </c>
+      <c r="F29" s="9">
+        <v>26673</v>
+      </c>
+      <c r="G29" s="9">
+        <v>15315</v>
+      </c>
+      <c r="H29" s="9">
+        <v>24322</v>
+      </c>
+      <c r="I29" s="9">
+        <v>25838</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>115608</v>
-      </c>
-      <c r="G29" s="9">
-        <v>26673</v>
-      </c>
-      <c r="H29" s="9">
-        <v>15315</v>
-      </c>
-      <c r="I29" s="9">
-        <v>24322</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1226,22 +1291,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1250,46 +1315,46 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F33" s="9">
+        <v>96737</v>
       </c>
       <c r="G33" s="9">
-        <v>96737</v>
+        <v>86136</v>
       </c>
       <c r="H33" s="9">
-        <v>86136</v>
+        <v>92241</v>
       </c>
       <c r="I33" s="9">
-        <v>92241</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>122544</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>16844</v>
+      <c r="E34" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1298,44 +1363,44 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>16844</v>
+        <v>115608</v>
       </c>
       <c r="F36" s="13">
-        <v>115608</v>
+        <v>123410</v>
       </c>
       <c r="G36" s="13">
-        <v>123410</v>
+        <v>101451</v>
       </c>
       <c r="H36" s="13">
-        <v>101451</v>
+        <v>116563</v>
       </c>
       <c r="I36" s="13">
-        <v>116563</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>148382</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1345,7 +1410,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1355,7 +1420,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1365,7 +1430,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1397,7 +1462,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1405,71 +1470,71 @@
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="9">
+        <v>-4423992</v>
+      </c>
+      <c r="F42" s="9">
+        <v>431656</v>
+      </c>
+      <c r="G42" s="9">
+        <v>459245</v>
+      </c>
+      <c r="H42" s="9">
+        <v>432454</v>
+      </c>
+      <c r="I42" s="9">
+        <v>393320</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="9">
-        <v>-4423992</v>
-      </c>
-      <c r="G42" s="9">
-        <v>431656</v>
-      </c>
-      <c r="H42" s="9">
-        <v>459245</v>
-      </c>
-      <c r="I42" s="9">
-        <v>432454</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <v>0</v>
+        <v>6334</v>
       </c>
       <c r="G43" s="11">
-        <v>6334</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>3912291</v>
+      <c r="E44" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
@@ -1478,22 +1543,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1501,47 +1566,47 @@
         <v>25</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>26</v>
+      <c r="E46" s="9">
+        <v>945783</v>
       </c>
       <c r="F46" s="9">
-        <v>945783</v>
+        <v>261188</v>
       </c>
       <c r="G46" s="9">
-        <v>261188</v>
+        <v>347213</v>
       </c>
       <c r="H46" s="9">
-        <v>347213</v>
+        <v>388980</v>
       </c>
       <c r="I46" s="9">
-        <v>388980</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>302849</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>5347339</v>
+      <c r="E47" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>33</v>
       </c>
@@ -1550,44 +1615,44 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>9259630</v>
+        <v>-3478209</v>
       </c>
       <c r="F49" s="13">
-        <v>-3478209</v>
+        <v>699178</v>
       </c>
       <c r="G49" s="13">
-        <v>699178</v>
+        <v>806458</v>
       </c>
       <c r="H49" s="13">
-        <v>806458</v>
+        <v>821434</v>
       </c>
       <c r="I49" s="13">
-        <v>821434</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>696169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1597,7 +1662,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1607,7 +1672,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1617,7 +1682,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1649,7 +1714,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1657,71 +1722,71 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="9">
+        <v>-4471224</v>
+      </c>
+      <c r="F55" s="9">
+        <v>443014</v>
+      </c>
+      <c r="G55" s="9">
+        <v>450238</v>
+      </c>
+      <c r="H55" s="9">
+        <v>430938</v>
+      </c>
+      <c r="I55" s="9">
+        <v>392082</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="9">
-        <v>-4471224</v>
-      </c>
-      <c r="G55" s="9">
-        <v>443014</v>
-      </c>
-      <c r="H55" s="9">
-        <v>450238</v>
-      </c>
-      <c r="I55" s="9">
-        <v>430938</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C56" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>4937</v>
       </c>
       <c r="G56" s="11">
-        <v>4937</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>3980054</v>
+      <c r="E57" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>30</v>
       </c>
@@ -1730,22 +1795,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
@@ -1753,47 +1818,47 @@
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>922395</v>
       </c>
       <c r="F59" s="9">
-        <v>922395</v>
+        <v>315423</v>
       </c>
       <c r="G59" s="9">
-        <v>315423</v>
+        <v>341108</v>
       </c>
       <c r="H59" s="9">
-        <v>341108</v>
+        <v>358677</v>
       </c>
       <c r="I59" s="9">
-        <v>358677</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>367422</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>5384742</v>
+      <c r="E60" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -1802,44 +1867,44 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>9364796</v>
+        <v>-3548829</v>
       </c>
       <c r="F62" s="13">
-        <v>-3548829</v>
+        <v>763374</v>
       </c>
       <c r="G62" s="13">
-        <v>763374</v>
+        <v>791346</v>
       </c>
       <c r="H62" s="13">
-        <v>791346</v>
+        <v>789615</v>
       </c>
       <c r="I62" s="13">
-        <v>789615</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>759504</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1849,7 +1914,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1859,7 +1924,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1869,7 +1934,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1901,7 +1966,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1909,71 +1974,71 @@
         <v>25</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="9">
+        <v>26673</v>
+      </c>
+      <c r="F68" s="9">
+        <v>15315</v>
+      </c>
+      <c r="G68" s="9">
+        <v>24322</v>
+      </c>
+      <c r="H68" s="9">
+        <v>25838</v>
+      </c>
+      <c r="I68" s="9">
+        <v>27076</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="9">
-        <v>26673</v>
-      </c>
-      <c r="G68" s="9">
-        <v>15315</v>
-      </c>
-      <c r="H68" s="9">
-        <v>24322</v>
-      </c>
-      <c r="I68" s="9">
-        <v>25838</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C69" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <v>0</v>
       </c>
       <c r="F69" s="11">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="G69" s="11">
-        <v>1397</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>668035</v>
+      <c r="E70" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
@@ -1982,22 +2047,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
       </c>
       <c r="I71" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -2005,47 +2070,47 @@
         <v>25</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>26</v>
+      <c r="E72" s="9">
+        <v>140371</v>
       </c>
       <c r="F72" s="9">
-        <v>140371</v>
+        <v>86136</v>
       </c>
       <c r="G72" s="9">
-        <v>86136</v>
+        <v>92241</v>
       </c>
       <c r="H72" s="9">
-        <v>92241</v>
+        <v>122544</v>
       </c>
       <c r="I72" s="9">
-        <v>122544</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57971</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11">
-        <v>115608</v>
+      <c r="E73" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2119,44 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>783643</v>
+        <v>167044</v>
       </c>
       <c r="F75" s="13">
-        <v>167044</v>
+        <v>102848</v>
       </c>
       <c r="G75" s="13">
-        <v>102848</v>
+        <v>116563</v>
       </c>
       <c r="H75" s="13">
-        <v>116563</v>
+        <v>148382</v>
       </c>
       <c r="I75" s="13">
-        <v>148382</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85047</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2101,7 +2166,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2111,7 +2176,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2121,7 +2186,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>39</v>
       </c>
@@ -2143,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2153,259 +2218,249 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>56806</v>
+        <v>1516116</v>
       </c>
       <c r="F81" s="9">
-        <v>33540</v>
+        <v>2370371</v>
       </c>
       <c r="G81" s="9">
-        <v>18546</v>
+        <v>1486802</v>
       </c>
       <c r="H81" s="9">
-        <v>25894</v>
+        <v>3659791</v>
       </c>
       <c r="I81" s="9">
-        <v>121106</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3852221</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>0</v>
+      <c r="E82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G82" s="11">
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83" s="9">
-        <v>0</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11">
-        <v>0</v>
-      </c>
-      <c r="F84" s="11">
-        <v>0</v>
-      </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
-        <v>0</v>
+      <c r="E84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I84" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>133455</v>
+      <c r="E85" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="F85" s="9">
-        <v>538808</v>
+        <v>8082243</v>
       </c>
       <c r="G85" s="9">
-        <v>956296</v>
+        <v>7874425</v>
       </c>
       <c r="H85" s="9">
-        <v>576744</v>
+        <v>4094209</v>
       </c>
       <c r="I85" s="9">
-        <v>120329</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17171763</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-      <c r="F86" s="11">
-        <v>0</v>
-      </c>
-      <c r="G86" s="11">
-        <v>0</v>
-      </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9">
-        <v>256324</v>
-      </c>
-      <c r="F87" s="9">
-        <v>228298</v>
-      </c>
-      <c r="G87" s="9">
-        <v>359063</v>
-      </c>
-      <c r="H87" s="9">
-        <v>326098</v>
-      </c>
-      <c r="I87" s="9">
-        <v>467279</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11">
-        <v>736420</v>
-      </c>
-      <c r="F88" s="11">
-        <v>555414</v>
-      </c>
-      <c r="G88" s="11">
-        <v>798412</v>
-      </c>
-      <c r="H88" s="11">
-        <v>974604</v>
-      </c>
-      <c r="I88" s="11">
-        <v>1202188</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11">
-        <v>309182</v>
-      </c>
-      <c r="F90" s="11">
-        <v>231553</v>
-      </c>
-      <c r="G90" s="11">
-        <v>519342</v>
-      </c>
-      <c r="H90" s="11">
-        <v>400049</v>
-      </c>
-      <c r="I90" s="11">
-        <v>803908</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="E87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15">
-        <v>1492187</v>
-      </c>
-      <c r="F91" s="15">
-        <v>1587613</v>
-      </c>
-      <c r="G91" s="15">
-        <v>2651659</v>
-      </c>
-      <c r="H91" s="15">
-        <v>2303389</v>
-      </c>
-      <c r="I91" s="15">
-        <v>2714810</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13">
+        <v>1516116</v>
+      </c>
+      <c r="F88" s="13">
+        <v>10452614</v>
+      </c>
+      <c r="G88" s="13">
+        <v>9361227</v>
+      </c>
+      <c r="H88" s="13">
+        <v>7754000</v>
+      </c>
+      <c r="I88" s="13">
+        <v>21023984</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B92" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2415,210 +2470,1980 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9">
+        <v>47391934</v>
+      </c>
+      <c r="F94" s="9">
+        <v>53518730</v>
+      </c>
+      <c r="G94" s="9">
+        <v>69920472</v>
+      </c>
+      <c r="H94" s="9">
+        <v>63819927</v>
+      </c>
+      <c r="I94" s="9">
+        <v>52758170</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>960986</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9">
+        <v>83469482</v>
+      </c>
+      <c r="F98" s="9">
+        <v>32240891</v>
+      </c>
+      <c r="G98" s="9">
+        <v>43932227</v>
+      </c>
+      <c r="H98" s="9">
+        <v>63424177</v>
+      </c>
+      <c r="I98" s="9">
+        <v>39692623</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13">
+        <v>130861416</v>
+      </c>
+      <c r="F101" s="13">
+        <v>86720607</v>
+      </c>
+      <c r="G101" s="13">
+        <v>113852699</v>
+      </c>
+      <c r="H101" s="13">
+        <v>127244104</v>
+      </c>
+      <c r="I101" s="13">
+        <v>92450793</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>46536763</v>
+      </c>
+      <c r="F107" s="9">
+        <v>54402299</v>
+      </c>
+      <c r="G107" s="9">
+        <v>67747483</v>
+      </c>
+      <c r="H107" s="9">
+        <v>63627497</v>
+      </c>
+      <c r="I107" s="9">
+        <v>52696139</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+      <c r="F108" s="11">
+        <v>748873</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <v>77065117</v>
+      </c>
+      <c r="F111" s="9">
+        <v>36094354</v>
+      </c>
+      <c r="G111" s="9">
+        <v>47712443</v>
+      </c>
+      <c r="H111" s="9">
+        <v>50346623</v>
+      </c>
+      <c r="I111" s="9">
+        <v>48882534</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13">
+        <v>123601880</v>
+      </c>
+      <c r="F114" s="13">
+        <v>91245526</v>
+      </c>
+      <c r="G114" s="13">
+        <v>115459926</v>
+      </c>
+      <c r="H114" s="13">
+        <v>113974120</v>
+      </c>
+      <c r="I114" s="13">
+        <v>101578673</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9">
+        <v>2370371</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1486802</v>
+      </c>
+      <c r="G120" s="9">
+        <v>3659791</v>
+      </c>
+      <c r="H120" s="9">
+        <v>3852221</v>
+      </c>
+      <c r="I120" s="9">
+        <v>3914252</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="11">
+        <v>212113</v>
+      </c>
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9">
+        <v>11727889</v>
+      </c>
+      <c r="F124" s="9">
+        <v>7874425</v>
+      </c>
+      <c r="G124" s="9">
+        <v>4094209</v>
+      </c>
+      <c r="H124" s="9">
+        <v>17171763</v>
+      </c>
+      <c r="I124" s="9">
+        <v>7981852</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13">
+        <v>14098260</v>
+      </c>
+      <c r="F127" s="13">
+        <v>9573340</v>
+      </c>
+      <c r="G127" s="13">
+        <v>7754000</v>
+      </c>
+      <c r="H127" s="13">
+        <v>21023984</v>
+      </c>
+      <c r="I127" s="13">
+        <v>11896104</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B131" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>13106359</v>
+      </c>
+      <c r="F133" s="9">
+        <v>88867806</v>
+      </c>
+      <c r="G133" s="9">
+        <v>97081423</v>
+      </c>
+      <c r="H133" s="9">
+        <v>150472453</v>
+      </c>
+      <c r="I133" s="9">
+        <v>149091300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="9">
+        <v>83549230</v>
+      </c>
+      <c r="G137" s="9">
+        <v>91418513</v>
+      </c>
+      <c r="H137" s="9">
+        <v>44386000</v>
+      </c>
+      <c r="I137" s="9">
+        <v>140127326</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B142" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9">
+        <v>-10712482</v>
+      </c>
+      <c r="F144" s="9">
+        <v>123984678</v>
+      </c>
+      <c r="G144" s="9">
+        <v>152250916</v>
+      </c>
+      <c r="H144" s="9">
+        <v>147576221</v>
+      </c>
+      <c r="I144" s="9">
+        <v>134135488</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="11">
+        <v>151718661</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11">
+        <v>88254369</v>
+      </c>
+      <c r="F147" s="11">
+        <v>123439404</v>
+      </c>
+      <c r="G147" s="11">
+        <v>126528174</v>
+      </c>
+      <c r="H147" s="11">
+        <v>163052540</v>
+      </c>
+      <c r="I147" s="11">
+        <v>131064072</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B152" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9">
+        <v>-10408059</v>
+      </c>
+      <c r="F154" s="9">
+        <v>122800406</v>
+      </c>
+      <c r="G154" s="9">
+        <v>150470380</v>
+      </c>
+      <c r="H154" s="9">
+        <v>147648843</v>
+      </c>
+      <c r="I154" s="9">
+        <v>134400812</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="11">
+        <v>151685842</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>83548932</v>
+      </c>
+      <c r="F158" s="9">
+        <v>114431586</v>
+      </c>
+      <c r="G158" s="9">
+        <v>139874887</v>
+      </c>
+      <c r="H158" s="9">
+        <v>140367581</v>
+      </c>
+      <c r="I158" s="9">
+        <v>133041935</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B163" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9">
+        <v>88867806</v>
+      </c>
+      <c r="F165" s="9">
+        <v>97081423</v>
+      </c>
+      <c r="G165" s="9">
+        <v>150472453</v>
+      </c>
+      <c r="H165" s="9">
+        <v>149091300</v>
+      </c>
+      <c r="I165" s="9">
+        <v>144565372</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" s="11">
+        <v>151834646</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11">
+        <v>83549230</v>
+      </c>
+      <c r="F168" s="11">
+        <v>91418513</v>
+      </c>
+      <c r="G168" s="11">
+        <v>44386000</v>
+      </c>
+      <c r="H168" s="11">
+        <v>140127326</v>
+      </c>
+      <c r="I168" s="11">
+        <v>137686981</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B173" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9">
+        <v>33540</v>
+      </c>
+      <c r="F175" s="9">
+        <v>18546</v>
+      </c>
+      <c r="G175" s="9">
+        <v>25894</v>
+      </c>
+      <c r="H175" s="9">
+        <v>121106</v>
+      </c>
+      <c r="I175" s="9">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11">
+        <v>0</v>
+      </c>
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+      <c r="G176" s="11">
+        <v>0</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9">
+        <v>0</v>
+      </c>
+      <c r="F177" s="9">
+        <v>0</v>
+      </c>
+      <c r="G177" s="9">
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <v>0</v>
+      </c>
+      <c r="I177" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11">
+        <v>0</v>
+      </c>
+      <c r="F178" s="11">
+        <v>0</v>
+      </c>
+      <c r="G178" s="11">
+        <v>0</v>
+      </c>
+      <c r="H178" s="11">
+        <v>0</v>
+      </c>
+      <c r="I178" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9">
+        <v>538808</v>
+      </c>
+      <c r="F179" s="9">
+        <v>956296</v>
+      </c>
+      <c r="G179" s="9">
+        <v>576744</v>
+      </c>
+      <c r="H179" s="9">
+        <v>120329</v>
+      </c>
+      <c r="I179" s="9">
+        <v>548296</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11">
+        <v>0</v>
+      </c>
+      <c r="F180" s="11">
+        <v>0</v>
+      </c>
+      <c r="G180" s="11">
+        <v>0</v>
+      </c>
+      <c r="H180" s="11">
+        <v>0</v>
+      </c>
+      <c r="I180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9">
+        <v>228298</v>
+      </c>
+      <c r="F181" s="9">
+        <v>359063</v>
+      </c>
+      <c r="G181" s="9">
+        <v>326098</v>
+      </c>
+      <c r="H181" s="9">
+        <v>467279</v>
+      </c>
+      <c r="I181" s="9">
+        <v>465364</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11">
+        <v>555414</v>
+      </c>
+      <c r="F182" s="11">
+        <v>798412</v>
+      </c>
+      <c r="G182" s="11">
+        <v>974604</v>
+      </c>
+      <c r="H182" s="11">
+        <v>1202188</v>
+      </c>
+      <c r="I182" s="11">
+        <v>939465</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9">
+        <v>0</v>
+      </c>
+      <c r="F183" s="9">
+        <v>0</v>
+      </c>
+      <c r="G183" s="9">
+        <v>0</v>
+      </c>
+      <c r="H183" s="9">
+        <v>0</v>
+      </c>
+      <c r="I183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11">
+        <v>231553</v>
+      </c>
+      <c r="F184" s="11">
+        <v>519342</v>
+      </c>
+      <c r="G184" s="11">
+        <v>400049</v>
+      </c>
+      <c r="H184" s="11">
+        <v>803908</v>
+      </c>
+      <c r="I184" s="11">
+        <v>164542</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15">
+        <v>1587613</v>
+      </c>
+      <c r="F185" s="15">
+        <v>2651659</v>
+      </c>
+      <c r="G185" s="15">
+        <v>2303389</v>
+      </c>
+      <c r="H185" s="15">
+        <v>2714810</v>
+      </c>
+      <c r="I185" s="15">
+        <v>2195667</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B189" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
+      <c r="C195" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+      <c r="C196" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/palayesh/shavan/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED67550-325A-47E4-8307-A1B1F35BA4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6181E9AD-152D-4B77-86A7-63992BD03E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -100,10 +115,10 @@
     <t>متر مکعب</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>ماده افزودنی ، MTBE</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>میعانات</t>
@@ -721,16 +736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I203"/>
+  <dimension ref="B1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -739,8 +754,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,8 +771,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -763,8 +788,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -773,8 +803,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -785,8 +820,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -797,8 +837,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -807,8 +852,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -829,8 +879,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -839,109 +904,174 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>24265722</v>
+      </c>
+      <c r="F10" s="9">
+        <v>35345241</v>
+      </c>
+      <c r="G10" s="9">
+        <v>50097144</v>
+      </c>
+      <c r="H10" s="9">
+        <v>58126524</v>
+      </c>
+      <c r="I10" s="9">
+        <v>66623097</v>
+      </c>
+      <c r="J10" s="9">
         <v>75641844</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>91245526</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>115459926</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>114186233</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>101578673</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>38251</v>
+      </c>
+      <c r="F11" s="11">
+        <v>107318</v>
+      </c>
+      <c r="G11" s="11">
+        <v>480124</v>
+      </c>
+      <c r="H11" s="11">
+        <v>294976</v>
+      </c>
+      <c r="I11" s="11">
+        <v>580777</v>
+      </c>
+      <c r="J11" s="11">
         <v>385252</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>348791</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>365548</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>806958</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>501206</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1173466</v>
+      </c>
+      <c r="F12" s="9">
+        <v>932331</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1109681</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1182342</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1492187</v>
+      </c>
+      <c r="J12" s="9">
         <v>1587613</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2651659</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2303389</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>2714810</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2195667</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>25477439</v>
+      </c>
+      <c r="F13" s="13">
+        <v>36384890</v>
+      </c>
+      <c r="G13" s="13">
+        <v>51686949</v>
+      </c>
+      <c r="H13" s="13">
+        <v>59603842</v>
+      </c>
+      <c r="I13" s="13">
+        <v>68696061</v>
+      </c>
+      <c r="J13" s="13">
         <v>77614709</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>94245976</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>118128863</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>117708001</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>104275546</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>-2294130</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>2294130</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>-2294130</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -949,54 +1079,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>23183309</v>
+      </c>
+      <c r="F15" s="13">
+        <v>38679020</v>
+      </c>
+      <c r="G15" s="13">
+        <v>49392819</v>
+      </c>
+      <c r="H15" s="13">
+        <v>59603842</v>
+      </c>
+      <c r="I15" s="13">
+        <v>68696061</v>
+      </c>
+      <c r="J15" s="13">
         <v>77614709</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>94245976</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>118128863</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>117708001</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>104275546</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-193118</v>
+      </c>
+      <c r="F16" s="9">
+        <v>12085</v>
+      </c>
+      <c r="G16" s="9">
+        <v>171894</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-83051</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-249761</v>
+      </c>
+      <c r="J16" s="9">
         <v>139778</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-132338</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-29925</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-223242</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-76107</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1015,98 +1190,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>22990191</v>
+      </c>
+      <c r="F18" s="15">
+        <v>38691105</v>
+      </c>
+      <c r="G18" s="15">
+        <v>49564713</v>
+      </c>
+      <c r="H18" s="15">
+        <v>59520791</v>
+      </c>
+      <c r="I18" s="15">
+        <v>68446300</v>
+      </c>
+      <c r="J18" s="15">
         <v>77754487</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>94113638</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>118098938</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>117484759</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>104199439</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>21664768</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>1244588</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>27381432</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>36074176</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>32561845</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-1501528</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-2388994</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-2744676</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-25734585</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-2080428</v>
+      </c>
+      <c r="J20" s="9">
         <v>-1244588</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-27381432</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-36074176</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-32561845</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-35862478</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>21488662</v>
+      </c>
+      <c r="F21" s="13">
+        <v>36302111</v>
+      </c>
+      <c r="G21" s="13">
+        <v>46820037</v>
+      </c>
+      <c r="H21" s="13">
+        <v>55450974</v>
+      </c>
+      <c r="I21" s="13">
+        <v>66365872</v>
+      </c>
+      <c r="J21" s="13">
         <v>76509899</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>95791807</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>109406194</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>120997090</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>100898806</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1125,30 +1375,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>21488662</v>
+      </c>
+      <c r="F23" s="13">
+        <v>36302111</v>
+      </c>
+      <c r="G23" s="13">
+        <v>46820037</v>
+      </c>
+      <c r="H23" s="13">
+        <v>55450974</v>
+      </c>
+      <c r="I23" s="13">
+        <v>66365872</v>
+      </c>
+      <c r="J23" s="13">
         <v>76509899</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>95791807</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>109406194</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>120997090</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>100898806</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1157,8 +1437,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1167,8 +1452,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1177,10 +1467,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1199,8 +1494,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1209,198 +1519,323 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9">
         <v>115608</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>26673</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>15315</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>24322</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>25838</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>27</v>
+      <c r="E33" s="9">
+        <v>1634346</v>
       </c>
       <c r="F33" s="9">
+        <v>98280</v>
+      </c>
+      <c r="G33" s="9">
+        <v>74279</v>
+      </c>
+      <c r="H33" s="9">
+        <v>116983</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9">
         <v>96737</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>86136</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>92241</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>122544</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="11">
+        <v>1278387</v>
+      </c>
+      <c r="F34" s="11">
+        <v>27274</v>
+      </c>
+      <c r="G34" s="11">
+        <v>26557</v>
+      </c>
+      <c r="H34" s="11">
+        <v>25741</v>
+      </c>
+      <c r="I34" s="11">
+        <v>16844</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>2912733</v>
+      </c>
+      <c r="F36" s="13">
+        <v>125554</v>
+      </c>
+      <c r="G36" s="13">
+        <v>100836</v>
+      </c>
+      <c r="H36" s="13">
+        <v>142724</v>
+      </c>
+      <c r="I36" s="13">
+        <v>16844</v>
+      </c>
+      <c r="J36" s="13">
         <v>115608</v>
       </c>
-      <c r="F36" s="13">
+      <c r="K36" s="13">
         <v>123410</v>
       </c>
-      <c r="G36" s="13">
+      <c r="L36" s="13">
         <v>101451</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>116563</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>148382</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1409,8 +1844,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1419,8 +1859,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1429,10 +1874,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1451,8 +1901,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1461,198 +1926,323 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="9">
         <v>-4423992</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>431656</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>459245</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>432454</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>393320</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <v>0</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
         <v>6334</v>
       </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I44" s="9">
+        <v>3912291</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>-1289422</v>
+      </c>
+      <c r="F46" s="9">
+        <v>233826</v>
+      </c>
+      <c r="G46" s="9">
+        <v>339321</v>
+      </c>
+      <c r="H46" s="9">
+        <v>313078</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="9">
         <v>945783</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>261188</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>347213</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>388980</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>302849</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="11">
+        <v>-862398</v>
+      </c>
+      <c r="F47" s="11">
+        <v>447625</v>
+      </c>
+      <c r="G47" s="11">
+        <v>440243</v>
+      </c>
+      <c r="H47" s="11">
+        <v>465318</v>
+      </c>
+      <c r="I47" s="11">
+        <v>5347339</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>-2151820</v>
+      </c>
+      <c r="F49" s="13">
+        <v>681451</v>
+      </c>
+      <c r="G49" s="13">
+        <v>779564</v>
+      </c>
+      <c r="H49" s="13">
+        <v>778396</v>
+      </c>
+      <c r="I49" s="13">
+        <v>9259630</v>
+      </c>
+      <c r="J49" s="13">
         <v>-3478209</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>699178</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>806458</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>821434</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>696169</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1661,8 +2251,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1671,8 +2266,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1681,10 +2281,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1703,8 +2308,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1713,198 +2333,323 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
+      <c r="E55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9">
         <v>-4471224</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>443014</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>450238</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>430938</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>392082</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
+        <v>1683</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1683</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
         <v>4937</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I57" s="9">
+        <v>3980054</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>246644</v>
+      </c>
+      <c r="F59" s="9">
+        <v>257827</v>
+      </c>
+      <c r="G59" s="9">
+        <v>296617</v>
+      </c>
+      <c r="H59" s="9">
+        <v>302923</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9">
         <v>922395</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>315423</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>341108</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>358677</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>367422</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="11">
+        <v>388715</v>
+      </c>
+      <c r="F60" s="11">
+        <v>448342</v>
+      </c>
+      <c r="G60" s="11">
+        <v>441059</v>
+      </c>
+      <c r="H60" s="11">
+        <v>474215</v>
+      </c>
+      <c r="I60" s="11">
+        <v>5384742</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>637042</v>
+      </c>
+      <c r="F62" s="13">
+        <v>706169</v>
+      </c>
+      <c r="G62" s="13">
+        <v>739359</v>
+      </c>
+      <c r="H62" s="13">
+        <v>777138</v>
+      </c>
+      <c r="I62" s="13">
+        <v>9364796</v>
+      </c>
+      <c r="J62" s="13">
         <v>-3548829</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>763374</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>791346</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>789615</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>759504</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1913,8 +2658,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1923,8 +2673,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1933,10 +2688,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1955,8 +2715,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1965,198 +2740,323 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
+      <c r="E68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="9">
         <v>26673</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>15315</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>24322</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>25838</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>27076</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <v>0</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
         <v>1397</v>
       </c>
-      <c r="G69" s="11">
-        <v>0</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L69" s="11">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I70" s="9">
+        <v>668035</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>98280</v>
+      </c>
+      <c r="F72" s="9">
+        <v>74279</v>
+      </c>
+      <c r="G72" s="9">
+        <v>116983</v>
+      </c>
+      <c r="H72" s="9">
+        <v>127138</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="9">
         <v>140371</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>86136</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>92241</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>122544</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>57971</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E73" s="11">
+        <v>27274</v>
+      </c>
+      <c r="F73" s="11">
+        <v>26557</v>
+      </c>
+      <c r="G73" s="11">
+        <v>25741</v>
+      </c>
+      <c r="H73" s="11">
+        <v>16844</v>
+      </c>
+      <c r="I73" s="11">
+        <v>115608</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>125554</v>
+      </c>
+      <c r="F75" s="13">
+        <v>100836</v>
+      </c>
+      <c r="G75" s="13">
+        <v>142724</v>
+      </c>
+      <c r="H75" s="13">
+        <v>143982</v>
+      </c>
+      <c r="I75" s="13">
+        <v>783643</v>
+      </c>
+      <c r="J75" s="13">
         <v>167044</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>102848</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>116563</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>148382</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>85047</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2165,8 +3065,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2175,8 +3080,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2185,10 +3095,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2207,8 +3122,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2217,198 +3147,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="E81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9">
         <v>1516116</v>
       </c>
-      <c r="F81" s="9">
+      <c r="K81" s="9">
         <v>2370371</v>
       </c>
-      <c r="G81" s="9">
+      <c r="L81" s="9">
         <v>1486802</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>3659791</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>3852221</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="11">
+        <v>0</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>27</v>
+      <c r="E85" s="9">
+        <v>1242501</v>
       </c>
       <c r="F85" s="9">
+        <v>2932462</v>
+      </c>
+      <c r="G85" s="9">
+        <v>2725380</v>
+      </c>
+      <c r="H85" s="9">
+        <v>5323523</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9">
         <v>8082243</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>7874425</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>4094209</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>17171763</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E86" s="11">
+        <v>1110927</v>
+      </c>
+      <c r="F86" s="11">
+        <v>869150</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1043168</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1230723</v>
+      </c>
+      <c r="I86" s="11">
+        <v>1295275</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>2353428</v>
+      </c>
+      <c r="F88" s="13">
+        <v>3801612</v>
+      </c>
+      <c r="G88" s="13">
+        <v>3768548</v>
+      </c>
+      <c r="H88" s="13">
+        <v>6554246</v>
+      </c>
+      <c r="I88" s="13">
+        <v>1295275</v>
+      </c>
+      <c r="J88" s="13">
         <v>1516116</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>10452614</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>9361227</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>7754000</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>21023984</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2417,8 +3472,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2427,8 +3487,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2437,10 +3502,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2459,8 +3529,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2469,198 +3554,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="E94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="9">
         <v>47391934</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>53518730</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>69920472</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>63819927</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>52758170</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
         <v>0</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
         <v>960986</v>
       </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L95" s="11">
+        <v>0</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I96" s="9">
+        <v>50686399</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>10126338</v>
+      </c>
+      <c r="F98" s="9">
+        <v>12070198</v>
+      </c>
+      <c r="G98" s="9">
+        <v>21487431</v>
+      </c>
+      <c r="H98" s="9">
+        <v>24902481</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" s="9">
         <v>83469482</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>32240891</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>43932227</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>63424177</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>39692623</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E99" s="11">
+        <v>16046862</v>
+      </c>
+      <c r="F99" s="11">
+        <v>23326921</v>
+      </c>
+      <c r="G99" s="11">
+        <v>31310470</v>
+      </c>
+      <c r="H99" s="11">
+        <v>36530402</v>
+      </c>
+      <c r="I99" s="11">
+        <v>40543660</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>26173200</v>
+      </c>
+      <c r="F101" s="13">
+        <v>35397119</v>
+      </c>
+      <c r="G101" s="13">
+        <v>52797901</v>
+      </c>
+      <c r="H101" s="13">
+        <v>61432883</v>
+      </c>
+      <c r="I101" s="13">
+        <v>91230059</v>
+      </c>
+      <c r="J101" s="13">
         <v>130861416</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>86720607</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>113852699</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>127244104</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>92450793</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2669,8 +3879,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2679,8 +3894,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2689,10 +3909,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2711,8 +3936,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2721,198 +3961,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
+      <c r="E107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="9">
         <v>46536763</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>54402299</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>67747483</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>63627497</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>52696139</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>0</v>
-      </c>
-      <c r="F108" s="11">
+        <v>84942</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="11">
+        <v>84942</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0</v>
+      </c>
+      <c r="K108" s="11">
         <v>748873</v>
       </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L108" s="11">
+        <v>0</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9">
+        <v>47960036</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>8037460</v>
+      </c>
+      <c r="F111" s="9">
+        <v>12277280</v>
+      </c>
+      <c r="G111" s="9">
+        <v>18889287</v>
+      </c>
+      <c r="H111" s="9">
+        <v>21660674</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="9">
         <v>77065117</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>36094354</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>47712443</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>50346623</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>48882534</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E112" s="11">
+        <v>16143320</v>
+      </c>
+      <c r="F112" s="11">
+        <v>23152903</v>
+      </c>
+      <c r="G112" s="11">
+        <v>31122915</v>
+      </c>
+      <c r="H112" s="11">
+        <v>36465850</v>
+      </c>
+      <c r="I112" s="11">
+        <v>40323735</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>24265722</v>
+      </c>
+      <c r="F114" s="13">
+        <v>35430183</v>
+      </c>
+      <c r="G114" s="13">
+        <v>50097144</v>
+      </c>
+      <c r="H114" s="13">
+        <v>58126524</v>
+      </c>
+      <c r="I114" s="13">
+        <v>88283771</v>
+      </c>
+      <c r="J114" s="13">
         <v>123601880</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>91245526</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>115459926</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>113974120</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>101578673</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2921,8 +4286,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2931,8 +4301,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2941,10 +4316,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2963,8 +4343,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2973,198 +4368,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
+      <c r="E120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="9">
         <v>2370371</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>1486802</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>3659791</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>3852221</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>3914252</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
         <v>0</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
+        <v>0</v>
+      </c>
+      <c r="K121" s="11">
         <v>212113</v>
       </c>
-      <c r="G121" s="11">
-        <v>0</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L121" s="11">
+        <v>0</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I122" s="9">
+        <v>8049886</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H123" s="11">
-        <v>0</v>
-      </c>
-      <c r="I123" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="11">
+        <v>0</v>
+      </c>
+      <c r="N123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>2932462</v>
+      </c>
+      <c r="F124" s="9">
+        <v>2725380</v>
+      </c>
+      <c r="G124" s="9">
+        <v>5323524</v>
+      </c>
+      <c r="H124" s="9">
+        <v>8565330</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="9">
         <v>11727889</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>7874425</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>4094209</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>17171763</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>7981852</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E125" s="11">
+        <v>869150</v>
+      </c>
+      <c r="F125" s="11">
+        <v>1043168</v>
+      </c>
+      <c r="G125" s="11">
+        <v>1230723</v>
+      </c>
+      <c r="H125" s="11">
+        <v>1295275</v>
+      </c>
+      <c r="I125" s="11">
+        <v>1515200</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>3801612</v>
+      </c>
+      <c r="F127" s="13">
+        <v>3768548</v>
+      </c>
+      <c r="G127" s="13">
+        <v>6554247</v>
+      </c>
+      <c r="H127" s="13">
+        <v>9860605</v>
+      </c>
+      <c r="I127" s="13">
+        <v>9565086</v>
+      </c>
+      <c r="J127" s="13">
         <v>14098260</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>9573340</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>7754000</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>21023984</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>11896104</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3173,8 +4693,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3183,8 +4708,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3193,10 +4723,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3215,8 +4750,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3225,152 +4775,247 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
+      <c r="E133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9">
         <v>13106359</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>88867806</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>97081423</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>150472453</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>149091300</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>27</v>
+      <c r="E137" s="9">
+        <v>760244</v>
       </c>
       <c r="F137" s="9">
+        <v>29837831</v>
+      </c>
+      <c r="G137" s="9">
+        <v>36691124</v>
+      </c>
+      <c r="H137" s="9">
+        <v>45506809</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9">
         <v>83549230</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>91418513</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>44386000</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>140127326</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E138" s="11">
+        <v>869007</v>
+      </c>
+      <c r="F138" s="11">
+        <v>31867346</v>
+      </c>
+      <c r="G138" s="11">
+        <v>39280340</v>
+      </c>
+      <c r="H138" s="11">
+        <v>47811779</v>
+      </c>
+      <c r="I138" s="11">
+        <v>76898302</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3379,8 +5024,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3389,8 +5039,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3399,10 +5054,15 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3421,8 +5081,23 @@
       <c r="I142" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3431,128 +5106,208 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="9">
+      <c r="E144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" s="9">
         <v>-10712482</v>
       </c>
-      <c r="F144" s="9">
+      <c r="K144" s="9">
         <v>123984678</v>
       </c>
-      <c r="G144" s="9">
+      <c r="L144" s="9">
         <v>152250916</v>
       </c>
-      <c r="H144" s="9">
+      <c r="M144" s="9">
         <v>147576221</v>
       </c>
-      <c r="I144" s="9">
+      <c r="N144" s="9">
         <v>134135488</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" s="11">
+        <v>31</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" s="11">
         <v>151718661</v>
       </c>
-      <c r="G145" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I146" s="9">
+        <v>12955682</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
+        <v>-7853393</v>
+      </c>
+      <c r="F147" s="11">
+        <v>51620427</v>
+      </c>
+      <c r="G147" s="11">
+        <v>63324790</v>
+      </c>
+      <c r="H147" s="11">
+        <v>79540821</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="11">
         <v>88254369</v>
       </c>
-      <c r="F147" s="11">
+      <c r="K147" s="11">
         <v>123439404</v>
       </c>
-      <c r="G147" s="11">
+      <c r="L147" s="11">
         <v>126528174</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>163052540</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>131064072</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I148" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E148" s="9">
+        <v>-18607258</v>
+      </c>
+      <c r="F148" s="9">
+        <v>52112641</v>
+      </c>
+      <c r="G148" s="9">
+        <v>71120881</v>
+      </c>
+      <c r="H148" s="9">
+        <v>78506316</v>
+      </c>
+      <c r="I148" s="9">
+        <v>7582025</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3561,8 +5316,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3571,8 +5331,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3581,10 +5346,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3603,8 +5373,23 @@
       <c r="I152" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3613,152 +5398,247 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9">
+      <c r="E154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" s="9">
         <v>-10408059</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>122800406</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>150470380</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>147648843</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>134400812</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F155" s="11">
+      <c r="E155" s="11">
+        <v>50470588</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="11">
+        <v>50470588</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="11">
         <v>151685842</v>
       </c>
-      <c r="G155" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I156" s="9">
+        <v>12050097</v>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
+        <v>32587292</v>
+      </c>
+      <c r="F158" s="9">
+        <v>47618287</v>
+      </c>
+      <c r="G158" s="9">
+        <v>63682415</v>
+      </c>
+      <c r="H158" s="9">
+        <v>71505544</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="9">
         <v>83548932</v>
       </c>
-      <c r="F158" s="9">
+      <c r="K158" s="9">
         <v>114431586</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>139874887</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>140367581</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>133041935</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E159" s="11">
+        <v>41529964</v>
+      </c>
+      <c r="F159" s="11">
+        <v>51641165</v>
+      </c>
+      <c r="G159" s="11">
+        <v>70564063</v>
+      </c>
+      <c r="H159" s="11">
+        <v>76897293</v>
+      </c>
+      <c r="I159" s="11">
+        <v>7488518</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3767,8 +5647,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3777,8 +5662,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3787,10 +5677,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3809,8 +5704,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3819,128 +5729,208 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="9">
+      <c r="E165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="9">
         <v>88867806</v>
       </c>
-      <c r="F165" s="9">
+      <c r="K165" s="9">
         <v>97081423</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>150472453</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>149091300</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>144565372</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F166" s="11">
+        <v>31</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" s="11">
         <v>151834646</v>
       </c>
-      <c r="G166" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I167" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I167" s="9">
+        <v>12050096</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="11">
+      <c r="E168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="11">
+        <v>45506817</v>
+      </c>
+      <c r="H168" s="11">
+        <v>67370338</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J168" s="11">
         <v>83549230</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>91418513</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>44386000</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>140127326</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>137686981</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G169" s="9">
+        <v>47811779</v>
+      </c>
+      <c r="H169" s="9">
+        <v>76898302</v>
+      </c>
+      <c r="I169" s="9">
+        <v>13106359</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N169" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3949,8 +5939,13 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3959,8 +5954,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3969,10 +5969,15 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -3991,8 +5996,23 @@
       <c r="I173" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N173" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4001,32 +6021,52 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
+        <v>72328</v>
+      </c>
+      <c r="F175" s="9">
+        <v>51128</v>
+      </c>
+      <c r="G175" s="9">
+        <v>-33025</v>
+      </c>
+      <c r="H175" s="9">
+        <v>35102</v>
+      </c>
+      <c r="I175" s="9">
+        <v>56806</v>
+      </c>
+      <c r="J175" s="9">
         <v>33540</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>18546</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>25894</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>121106</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>78000</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4045,10 +6085,25 @@
       <c r="I176" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="11">
+        <v>0</v>
+      </c>
+      <c r="K176" s="11">
+        <v>0</v>
+      </c>
+      <c r="L176" s="11">
+        <v>0</v>
+      </c>
+      <c r="M176" s="11">
+        <v>0</v>
+      </c>
+      <c r="N176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -4067,10 +6122,25 @@
       <c r="I177" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="9">
+        <v>0</v>
+      </c>
+      <c r="K177" s="9">
+        <v>0</v>
+      </c>
+      <c r="L177" s="9">
+        <v>0</v>
+      </c>
+      <c r="M177" s="9">
+        <v>0</v>
+      </c>
+      <c r="N177" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -4089,32 +6159,62 @@
       <c r="I178" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="11">
+        <v>0</v>
+      </c>
+      <c r="K178" s="11">
+        <v>0</v>
+      </c>
+      <c r="L178" s="11">
+        <v>0</v>
+      </c>
+      <c r="M178" s="11">
+        <v>0</v>
+      </c>
+      <c r="N178" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>205539</v>
+      </c>
+      <c r="F179" s="9">
+        <v>159707</v>
+      </c>
+      <c r="G179" s="9">
+        <v>4372</v>
+      </c>
+      <c r="H179" s="9">
+        <v>247036</v>
+      </c>
+      <c r="I179" s="9">
+        <v>133455</v>
+      </c>
+      <c r="J179" s="9">
         <v>538808</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>956296</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>576744</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>120329</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>548296</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -4133,54 +6233,99 @@
       <c r="I180" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="11">
+        <v>0</v>
+      </c>
+      <c r="K180" s="11">
+        <v>0</v>
+      </c>
+      <c r="L180" s="11">
+        <v>0</v>
+      </c>
+      <c r="M180" s="11">
+        <v>0</v>
+      </c>
+      <c r="N180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>190390</v>
+      </c>
+      <c r="F181" s="9">
+        <v>201964</v>
+      </c>
+      <c r="G181" s="9">
+        <v>422615</v>
+      </c>
+      <c r="H181" s="9">
+        <v>199831</v>
+      </c>
+      <c r="I181" s="9">
+        <v>256324</v>
+      </c>
+      <c r="J181" s="9">
         <v>228298</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>359063</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>326098</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>467279</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>465364</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>492845</v>
+      </c>
+      <c r="F182" s="11">
+        <v>385892</v>
+      </c>
+      <c r="G182" s="11">
+        <v>467311</v>
+      </c>
+      <c r="H182" s="11">
+        <v>526145</v>
+      </c>
+      <c r="I182" s="11">
+        <v>736420</v>
+      </c>
+      <c r="J182" s="11">
         <v>555414</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>798412</v>
       </c>
-      <c r="G182" s="11">
+      <c r="L182" s="11">
         <v>974604</v>
       </c>
-      <c r="H182" s="11">
+      <c r="M182" s="11">
         <v>1202188</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>939465</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4199,52 +6344,97 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
+        <v>212364</v>
+      </c>
+      <c r="F184" s="11">
+        <v>133640</v>
+      </c>
+      <c r="G184" s="11">
+        <v>248408</v>
+      </c>
+      <c r="H184" s="11">
+        <v>174228</v>
+      </c>
+      <c r="I184" s="11">
+        <v>309182</v>
+      </c>
+      <c r="J184" s="11">
         <v>231553</v>
       </c>
-      <c r="F184" s="11">
+      <c r="K184" s="11">
         <v>519342</v>
       </c>
-      <c r="G184" s="11">
+      <c r="L184" s="11">
         <v>400049</v>
       </c>
-      <c r="H184" s="11">
+      <c r="M184" s="11">
         <v>803908</v>
       </c>
-      <c r="I184" s="11">
+      <c r="N184" s="11">
         <v>164542</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15">
+        <v>1173466</v>
+      </c>
+      <c r="F185" s="15">
+        <v>932331</v>
+      </c>
+      <c r="G185" s="15">
+        <v>1109681</v>
+      </c>
+      <c r="H185" s="15">
+        <v>1182342</v>
+      </c>
+      <c r="I185" s="15">
+        <v>1492187</v>
+      </c>
+      <c r="J185" s="15">
         <v>1587613</v>
       </c>
-      <c r="F185" s="15">
+      <c r="K185" s="15">
         <v>2651659</v>
       </c>
-      <c r="G185" s="15">
+      <c r="L185" s="15">
         <v>2303389</v>
       </c>
-      <c r="H185" s="15">
+      <c r="M185" s="15">
         <v>2714810</v>
       </c>
-      <c r="I185" s="15">
+      <c r="N185" s="15">
         <v>2195667</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4253,8 +6443,13 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4263,8 +6458,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4273,10 +6473,15 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4285,8 +6490,13 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4295,13 +6505,18 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -4309,13 +6524,18 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -4323,123 +6543,128 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>

--- a/database/industries/palayesh/shavan/cost/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6181E9AD-152D-4B77-86A7-63992BD03E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB800881-F7B7-42D9-A84F-A513C7DA374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -238,49 +238,49 @@
     <t>با توجه به تورم موجود براورد میگردد هزینه های شرکت نیز متناسب با ان افزایش یابد.</t>
   </si>
   <si>
+    <t>دوره 9 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>با توجه به اینکه نفت خام و میعانات گازی دریافتی، بیش از 95 درصد بهای تمام‌شده شرکت را تشکیل می‌دهد، تغییرات جهانی نفت خام و میعانات گازی و تغییرات نرخ تسعیر ارز، اثر مستقیم بر بهای تمام‌شده محصولات و سود شرکت خواهد داشت.</t>
+  </si>
+  <si>
     <t>دوره 6 ماهه منتهی به 1397/12/29</t>
   </si>
   <si>
+    <t>بر اساس مصوبه 29/7/1397 هیئت وزیران از مورخ 1/8/1397 نرخ تسعیر ارز برای محاسبه قیمت خوراک پالایشگاه ها(نفت خام و میعانات گازی ) و فرآورده های تحویلی از پالایشگاه ها به شرکت ملی پالایش و پخش فرآورده های نفتی ایران (پنج فرآورده اصلی و سوخت هوایی) و فرآورده های ویژه تولیدی برابر با متوسط ماهانه نرخ ارز در سامانه نیما خواهد بود که موضوع فوق منجر به تغییر سود هر سهم می گردد.</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>پیش بینی می گردد عوامل بهای تمام شده در شش ماهه دورم سال 1398 معادل شش ماهه ابتدای سال باشد</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>با توجه به اینکه نفت‌خام و میعانات گازی دریافتی، بیش از 95 درصد بهای تمام‌شده شرکت را تشکیل می‌دهد، تغییرات قیمت جهانی نفت‌خام و میعانات گازی و تغییرات نرخ تسعیر ارز، اثر مستقیم بر بهای تمام‌شده محصولات و سود شرکت خواهد داشت.</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>با توجه به تاثیر قیمت‌های بین‌المللی نفت‌خام و میعانات گازی و هم‌چنین نرخ تسعیر ارز بر نرخ مواد دریافتی، در صورت تغییر هر یک از متغیرهای ذکرشده، نرخ خوراک شرکت نیز تغییر خواهد کرد.</t>
+  </si>
+  <si>
+    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
+  </si>
+  <si>
+    <t>پیش بینی می گردد سایر هزینه های تولید متناسب با سطح عمومی قیمت ها  افزایش یابد</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
     <t>بر اساس مصوبه 29/7/1397 هیئت وزیران از مورخ 1/8/1397 نرخ تسعیر ارز برای محاسبه قیمت خوراک پالایشگاه ها(نفت خام و میعانات گازی ) برابر با متوسط ماهانه نرخ ارز در سامانه نیما خواهد بود.</t>
-  </si>
-  <si>
-    <t>دوره 9 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>با توجه به اینکه نفت خام و میعانات گازی دریافتی، بیش از 95 درصد بهای تمام‌شده شرکت را تشکیل می‌دهد، تغییرات جهانی نفت خام و میعانات گازی و تغییرات نرخ تسعیر ارز، اثر مستقیم بر بهای تمام‌شده محصولات و سود شرکت خواهد داشت.</t>
-  </si>
-  <si>
-    <t>بر اساس مصوبه 29/7/1397 هیئت وزیران از مورخ 1/8/1397 نرخ تسعیر ارز برای محاسبه قیمت خوراک پالایشگاه ها(نفت خام و میعانات گازی ) و فرآورده های تحویلی از پالایشگاه ها به شرکت ملی پالایش و پخش فرآورده های نفتی ایران (پنج فرآورده اصلی و سوخت هوایی) و فرآورده های ویژه تولیدی برابر با متوسط ماهانه نرخ ارز در سامانه نیما خواهد بود که موضوع فوق منجر به تغییر سود هر سهم می گردد.</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1398/12/29</t>
-  </si>
-  <si>
-    <t>پیش بینی می گردد عوامل بهای تمام شده در شش ماهه دورم سال 1398 معادل شش ماهه ابتدای سال باشد</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1398/12/29</t>
-  </si>
-  <si>
-    <t>با توجه به اینکه نفت‌خام و میعانات گازی دریافتی، بیش از 95 درصد بهای تمام‌شده شرکت را تشکیل می‌دهد، تغییرات قیمت جهانی نفت‌خام و میعانات گازی و تغییرات نرخ تسعیر ارز، اثر مستقیم بر بهای تمام‌شده محصولات و سود شرکت خواهد داشت.</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>با توجه به تاثیر قیمت‌های بین‌المللی نفت‌خام و میعانات گازی و هم‌چنین نرخ تسعیر ارز بر نرخ مواد دریافتی، در صورت تغییر هر یک از متغیرهای ذکرشده، نرخ خوراک شرکت نیز تغییر خواهد کرد.</t>
-  </si>
-  <si>
-    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
-  </si>
-  <si>
-    <t>پیش بینی می گردد سایر هزینه های تولید متناسب با سطح عمومی قیمت ها  افزایش یابد</t>
   </si>
 </sst>
 </file>
@@ -740,12 +740,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -809,7 +809,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -858,7 +858,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -910,168 +910,168 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>24265722</v>
+        <v>35345241</v>
       </c>
       <c r="F10" s="9">
-        <v>35345241</v>
+        <v>50097144</v>
       </c>
       <c r="G10" s="9">
-        <v>50097144</v>
+        <v>58126524</v>
       </c>
       <c r="H10" s="9">
-        <v>58126524</v>
+        <v>66623097</v>
       </c>
       <c r="I10" s="9">
-        <v>66623097</v>
+        <v>75641844</v>
       </c>
       <c r="J10" s="9">
-        <v>75641844</v>
+        <v>91245526</v>
       </c>
       <c r="K10" s="9">
-        <v>91245526</v>
+        <v>115459926</v>
       </c>
       <c r="L10" s="9">
-        <v>115459926</v>
+        <v>114186233</v>
       </c>
       <c r="M10" s="9">
-        <v>114186233</v>
+        <v>101578673</v>
       </c>
       <c r="N10" s="9">
-        <v>101578673</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66393207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>38251</v>
+        <v>107318</v>
       </c>
       <c r="F11" s="11">
-        <v>107318</v>
+        <v>480124</v>
       </c>
       <c r="G11" s="11">
-        <v>480124</v>
+        <v>294976</v>
       </c>
       <c r="H11" s="11">
-        <v>294976</v>
+        <v>580777</v>
       </c>
       <c r="I11" s="11">
-        <v>580777</v>
+        <v>385252</v>
       </c>
       <c r="J11" s="11">
-        <v>385252</v>
+        <v>348791</v>
       </c>
       <c r="K11" s="11">
-        <v>348791</v>
+        <v>365548</v>
       </c>
       <c r="L11" s="11">
-        <v>365548</v>
+        <v>806958</v>
       </c>
       <c r="M11" s="11">
-        <v>806958</v>
+        <v>501206</v>
       </c>
       <c r="N11" s="11">
-        <v>501206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1039165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1173466</v>
+        <v>932331</v>
       </c>
       <c r="F12" s="9">
-        <v>932331</v>
+        <v>1109681</v>
       </c>
       <c r="G12" s="9">
-        <v>1109681</v>
+        <v>1182342</v>
       </c>
       <c r="H12" s="9">
-        <v>1182342</v>
+        <v>1492187</v>
       </c>
       <c r="I12" s="9">
-        <v>1492187</v>
+        <v>1587613</v>
       </c>
       <c r="J12" s="9">
-        <v>1587613</v>
+        <v>2651659</v>
       </c>
       <c r="K12" s="9">
-        <v>2651659</v>
+        <v>2303389</v>
       </c>
       <c r="L12" s="9">
-        <v>2303389</v>
+        <v>2714810</v>
       </c>
       <c r="M12" s="9">
-        <v>2714810</v>
+        <v>2195667</v>
       </c>
       <c r="N12" s="9">
-        <v>2195667</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3016401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>25477439</v>
+        <v>36384890</v>
       </c>
       <c r="F13" s="13">
-        <v>36384890</v>
+        <v>51686949</v>
       </c>
       <c r="G13" s="13">
-        <v>51686949</v>
+        <v>59603842</v>
       </c>
       <c r="H13" s="13">
-        <v>59603842</v>
+        <v>68696061</v>
       </c>
       <c r="I13" s="13">
-        <v>68696061</v>
+        <v>77614709</v>
       </c>
       <c r="J13" s="13">
-        <v>77614709</v>
+        <v>94245976</v>
       </c>
       <c r="K13" s="13">
-        <v>94245976</v>
+        <v>118128863</v>
       </c>
       <c r="L13" s="13">
-        <v>118128863</v>
+        <v>117708001</v>
       </c>
       <c r="M13" s="13">
-        <v>117708001</v>
+        <v>104275546</v>
       </c>
       <c r="N13" s="13">
-        <v>104275546</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70448773</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>2294130</v>
+      </c>
+      <c r="F14" s="9">
         <v>-2294130</v>
       </c>
-      <c r="F14" s="9">
-        <v>2294130</v>
-      </c>
       <c r="G14" s="9">
-        <v>-2294130</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1095,81 +1095,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>23183309</v>
+        <v>38679020</v>
       </c>
       <c r="F15" s="13">
-        <v>38679020</v>
+        <v>49392819</v>
       </c>
       <c r="G15" s="13">
-        <v>49392819</v>
+        <v>59603842</v>
       </c>
       <c r="H15" s="13">
-        <v>59603842</v>
+        <v>68696061</v>
       </c>
       <c r="I15" s="13">
-        <v>68696061</v>
+        <v>77614709</v>
       </c>
       <c r="J15" s="13">
-        <v>77614709</v>
+        <v>94245976</v>
       </c>
       <c r="K15" s="13">
-        <v>94245976</v>
+        <v>118128863</v>
       </c>
       <c r="L15" s="13">
-        <v>118128863</v>
+        <v>117708001</v>
       </c>
       <c r="M15" s="13">
-        <v>117708001</v>
+        <v>104275546</v>
       </c>
       <c r="N15" s="13">
-        <v>104275546</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70448773</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-193118</v>
+        <v>12085</v>
       </c>
       <c r="F16" s="9">
-        <v>12085</v>
+        <v>171894</v>
       </c>
       <c r="G16" s="9">
-        <v>171894</v>
+        <v>-83051</v>
       </c>
       <c r="H16" s="9">
-        <v>-83051</v>
+        <v>-249761</v>
       </c>
       <c r="I16" s="9">
-        <v>-249761</v>
+        <v>139778</v>
       </c>
       <c r="J16" s="9">
-        <v>139778</v>
+        <v>-132338</v>
       </c>
       <c r="K16" s="9">
-        <v>-132338</v>
+        <v>-29925</v>
       </c>
       <c r="L16" s="9">
-        <v>-29925</v>
+        <v>-223242</v>
       </c>
       <c r="M16" s="9">
-        <v>-223242</v>
+        <v>-76107</v>
       </c>
       <c r="N16" s="9">
-        <v>-76107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-38018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1206,155 +1206,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>22990191</v>
+        <v>38691105</v>
       </c>
       <c r="F18" s="15">
-        <v>38691105</v>
+        <v>49564713</v>
       </c>
       <c r="G18" s="15">
-        <v>49564713</v>
+        <v>59520791</v>
       </c>
       <c r="H18" s="15">
-        <v>59520791</v>
+        <v>68446300</v>
       </c>
       <c r="I18" s="15">
-        <v>68446300</v>
+        <v>77754487</v>
       </c>
       <c r="J18" s="15">
-        <v>77754487</v>
+        <v>94113638</v>
       </c>
       <c r="K18" s="15">
-        <v>94113638</v>
+        <v>118098938</v>
       </c>
       <c r="L18" s="15">
-        <v>118098938</v>
+        <v>117484759</v>
       </c>
       <c r="M18" s="15">
-        <v>117484759</v>
+        <v>104199439</v>
       </c>
       <c r="N18" s="15">
-        <v>104199439</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>70410755</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>18920092</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>21664768</v>
       </c>
       <c r="H19" s="11">
-        <v>21664768</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>27815013</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>29059601</v>
       </c>
       <c r="K19" s="11">
-        <v>1244588</v>
+        <v>27381432</v>
       </c>
       <c r="L19" s="11">
-        <v>27381432</v>
+        <v>36074176</v>
       </c>
       <c r="M19" s="11">
-        <v>36074176</v>
+        <v>32561845</v>
       </c>
       <c r="N19" s="11">
-        <v>32561845</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35862478</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-1501528</v>
+        <v>-2388994</v>
       </c>
       <c r="F20" s="9">
-        <v>-2388994</v>
+        <v>-21664768</v>
       </c>
       <c r="G20" s="9">
-        <v>-2744676</v>
+        <v>-25734585</v>
       </c>
       <c r="H20" s="9">
-        <v>-25734585</v>
+        <v>-2080428</v>
       </c>
       <c r="I20" s="9">
-        <v>-2080428</v>
+        <v>-29059601</v>
       </c>
       <c r="J20" s="9">
-        <v>-1244588</v>
+        <v>-27381432</v>
       </c>
       <c r="K20" s="9">
-        <v>-27381432</v>
+        <v>-36074176</v>
       </c>
       <c r="L20" s="9">
-        <v>-36074176</v>
+        <v>-32561845</v>
       </c>
       <c r="M20" s="9">
-        <v>-32561845</v>
+        <v>-35862478</v>
       </c>
       <c r="N20" s="9">
-        <v>-35862478</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-21696644</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>21488662</v>
+        <v>36302111</v>
       </c>
       <c r="F21" s="13">
-        <v>36302111</v>
+        <v>46820037</v>
       </c>
       <c r="G21" s="13">
-        <v>46820037</v>
+        <v>55450974</v>
       </c>
       <c r="H21" s="13">
-        <v>55450974</v>
+        <v>66365872</v>
       </c>
       <c r="I21" s="13">
-        <v>66365872</v>
+        <v>76509899</v>
       </c>
       <c r="J21" s="13">
-        <v>76509899</v>
+        <v>95791807</v>
       </c>
       <c r="K21" s="13">
-        <v>95791807</v>
+        <v>109406194</v>
       </c>
       <c r="L21" s="13">
-        <v>109406194</v>
+        <v>120997090</v>
       </c>
       <c r="M21" s="13">
-        <v>120997090</v>
+        <v>100898806</v>
       </c>
       <c r="N21" s="13">
-        <v>100898806</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84576589</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1391,44 +1391,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>21488662</v>
+        <v>36302111</v>
       </c>
       <c r="F23" s="13">
-        <v>36302111</v>
+        <v>46820037</v>
       </c>
       <c r="G23" s="13">
-        <v>46820037</v>
+        <v>55450974</v>
       </c>
       <c r="H23" s="13">
-        <v>55450974</v>
+        <v>66365872</v>
       </c>
       <c r="I23" s="13">
-        <v>66365872</v>
+        <v>76509899</v>
       </c>
       <c r="J23" s="13">
-        <v>76509899</v>
+        <v>95791807</v>
       </c>
       <c r="K23" s="13">
-        <v>95791807</v>
+        <v>109406194</v>
       </c>
       <c r="L23" s="13">
-        <v>109406194</v>
+        <v>120997090</v>
       </c>
       <c r="M23" s="13">
-        <v>120997090</v>
+        <v>100898806</v>
       </c>
       <c r="N23" s="13">
-        <v>100898806</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84576589</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1525,7 +1525,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1545,26 @@
       <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>31</v>
+      <c r="I29" s="9">
+        <v>115608</v>
       </c>
       <c r="J29" s="9">
-        <v>115608</v>
+        <v>26673</v>
       </c>
       <c r="K29" s="9">
-        <v>26673</v>
+        <v>15315</v>
       </c>
       <c r="L29" s="9">
-        <v>15315</v>
+        <v>24322</v>
       </c>
       <c r="M29" s="9">
-        <v>24322</v>
+        <v>25838</v>
       </c>
       <c r="N29" s="9">
-        <v>25838</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27076</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1590,11 +1590,11 @@
       <c r="J30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>31</v>
@@ -1603,7 +1603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1674,14 +1674,14 @@
       <c r="L32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1690,37 +1690,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1634346</v>
+        <v>98280</v>
       </c>
       <c r="F33" s="9">
-        <v>98280</v>
+        <v>74279</v>
       </c>
       <c r="G33" s="9">
-        <v>74279</v>
-      </c>
-      <c r="H33" s="9">
         <v>116983</v>
       </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>31</v>
+      <c r="J33" s="9">
+        <v>96737</v>
       </c>
       <c r="K33" s="9">
-        <v>96737</v>
+        <v>86136</v>
       </c>
       <c r="L33" s="9">
-        <v>86136</v>
+        <v>92241</v>
       </c>
       <c r="M33" s="9">
-        <v>92241</v>
+        <v>122544</v>
       </c>
       <c r="N33" s="9">
-        <v>122544</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57971</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1729,20 +1729,20 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>1278387</v>
+        <v>27274</v>
       </c>
       <c r="F34" s="11">
-        <v>27274</v>
+        <v>26557</v>
       </c>
       <c r="G34" s="11">
-        <v>26557</v>
+        <v>25741</v>
       </c>
       <c r="H34" s="11">
-        <v>25741</v>
-      </c>
-      <c r="I34" s="11">
         <v>16844</v>
       </c>
+      <c r="I34" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J34" s="11" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1798,44 +1798,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>2912733</v>
+        <v>125554</v>
       </c>
       <c r="F36" s="13">
-        <v>125554</v>
+        <v>100836</v>
       </c>
       <c r="G36" s="13">
-        <v>100836</v>
+        <v>142724</v>
       </c>
       <c r="H36" s="13">
-        <v>142724</v>
+        <v>16844</v>
       </c>
       <c r="I36" s="13">
-        <v>16844</v>
+        <v>115608</v>
       </c>
       <c r="J36" s="13">
-        <v>115608</v>
+        <v>123410</v>
       </c>
       <c r="K36" s="13">
-        <v>123410</v>
+        <v>101451</v>
       </c>
       <c r="L36" s="13">
-        <v>101451</v>
+        <v>116563</v>
       </c>
       <c r="M36" s="13">
-        <v>116563</v>
+        <v>148382</v>
       </c>
       <c r="N36" s="13">
-        <v>148382</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85047</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1952,26 +1952,26 @@
       <c r="H42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>31</v>
+      <c r="I42" s="9">
+        <v>-4423992</v>
       </c>
       <c r="J42" s="9">
-        <v>-4423992</v>
+        <v>431656</v>
       </c>
       <c r="K42" s="9">
-        <v>431656</v>
+        <v>459245</v>
       </c>
       <c r="L42" s="9">
-        <v>459245</v>
+        <v>432454</v>
       </c>
       <c r="M42" s="9">
-        <v>432454</v>
+        <v>393320</v>
       </c>
       <c r="N42" s="9">
-        <v>393320</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>311029</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1979,29 +1979,29 @@
         <v>30</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>31</v>
+      <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>0</v>
       </c>
       <c r="J43" s="11">
-        <v>0</v>
+        <v>6334</v>
       </c>
       <c r="K43" s="11">
-        <v>6334</v>
-      </c>
-      <c r="L43" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>31</v>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -2027,12 +2027,12 @@
       <c r="G44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="H44" s="9">
         <v>3912291</v>
       </c>
+      <c r="I44" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J44" s="9" t="s">
         <v>31</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
@@ -2081,14 +2081,14 @@
       <c r="L45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2097,37 +2097,37 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>-1289422</v>
+        <v>233826</v>
       </c>
       <c r="F46" s="9">
-        <v>233826</v>
+        <v>339321</v>
       </c>
       <c r="G46" s="9">
-        <v>339321</v>
-      </c>
-      <c r="H46" s="9">
         <v>313078</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>31</v>
+      <c r="H46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="9">
+        <v>945783</v>
       </c>
       <c r="J46" s="9">
-        <v>945783</v>
+        <v>261188</v>
       </c>
       <c r="K46" s="9">
-        <v>261188</v>
+        <v>347213</v>
       </c>
       <c r="L46" s="9">
-        <v>347213</v>
+        <v>388980</v>
       </c>
       <c r="M46" s="9">
-        <v>388980</v>
+        <v>302849</v>
       </c>
       <c r="N46" s="9">
-        <v>302849</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>303588</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2136,20 +2136,20 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>-862398</v>
+        <v>447625</v>
       </c>
       <c r="F47" s="11">
-        <v>447625</v>
+        <v>440243</v>
       </c>
       <c r="G47" s="11">
-        <v>440243</v>
+        <v>465318</v>
       </c>
       <c r="H47" s="11">
-        <v>465318</v>
-      </c>
-      <c r="I47" s="11">
         <v>5347339</v>
       </c>
+      <c r="I47" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J47" s="11" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
@@ -2177,11 +2177,11 @@
       <c r="E48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>31</v>
@@ -2205,44 +2205,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>-2151820</v>
+        <v>681451</v>
       </c>
       <c r="F49" s="13">
-        <v>681451</v>
+        <v>779564</v>
       </c>
       <c r="G49" s="13">
-        <v>779564</v>
+        <v>778396</v>
       </c>
       <c r="H49" s="13">
-        <v>778396</v>
+        <v>9259630</v>
       </c>
       <c r="I49" s="13">
-        <v>9259630</v>
+        <v>-3478209</v>
       </c>
       <c r="J49" s="13">
-        <v>-3478209</v>
+        <v>699178</v>
       </c>
       <c r="K49" s="13">
-        <v>699178</v>
+        <v>806458</v>
       </c>
       <c r="L49" s="13">
-        <v>806458</v>
+        <v>821434</v>
       </c>
       <c r="M49" s="13">
-        <v>821434</v>
+        <v>696169</v>
       </c>
       <c r="N49" s="13">
-        <v>696169</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>614617</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2257,7 +2257,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2287,7 +2287,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>42</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2339,7 +2339,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2359,26 +2359,26 @@
       <c r="H55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>31</v>
+      <c r="I55" s="9">
+        <v>-4471224</v>
       </c>
       <c r="J55" s="9">
-        <v>-4471224</v>
+        <v>443014</v>
       </c>
       <c r="K55" s="9">
-        <v>443014</v>
+        <v>450238</v>
       </c>
       <c r="L55" s="9">
-        <v>450238</v>
+        <v>430938</v>
       </c>
       <c r="M55" s="9">
-        <v>430938</v>
+        <v>392082</v>
       </c>
       <c r="N55" s="9">
-        <v>392082</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>279760</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2386,29 +2386,29 @@
         <v>30</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
+      <c r="E56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11">
         <v>1683</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="11">
-        <v>1683</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>31</v>
+      <c r="G56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
       </c>
       <c r="I56" s="11">
         <v>0</v>
       </c>
       <c r="J56" s="11">
-        <v>0</v>
+        <v>4937</v>
       </c>
       <c r="K56" s="11">
-        <v>4937</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>31</v>
@@ -2417,7 +2417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2434,12 +2434,12 @@
       <c r="G57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" s="9">
+      <c r="H57" s="9">
         <v>3980054</v>
       </c>
+      <c r="I57" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J57" s="9" t="s">
         <v>31</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2488,14 +2488,14 @@
       <c r="L58" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M58" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -2504,37 +2504,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>246644</v>
+        <v>257827</v>
       </c>
       <c r="F59" s="9">
-        <v>257827</v>
+        <v>296617</v>
       </c>
       <c r="G59" s="9">
-        <v>296617</v>
-      </c>
-      <c r="H59" s="9">
         <v>302923</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>31</v>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="9">
+        <v>922395</v>
       </c>
       <c r="J59" s="9">
-        <v>922395</v>
+        <v>315423</v>
       </c>
       <c r="K59" s="9">
-        <v>315423</v>
+        <v>341108</v>
       </c>
       <c r="L59" s="9">
-        <v>341108</v>
+        <v>358677</v>
       </c>
       <c r="M59" s="9">
-        <v>358677</v>
+        <v>367422</v>
       </c>
       <c r="N59" s="9">
-        <v>367422</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>252089</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>37</v>
       </c>
@@ -2543,20 +2543,20 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>388715</v>
+        <v>448342</v>
       </c>
       <c r="F60" s="11">
-        <v>448342</v>
+        <v>441059</v>
       </c>
       <c r="G60" s="11">
-        <v>441059</v>
+        <v>474215</v>
       </c>
       <c r="H60" s="11">
-        <v>474215</v>
-      </c>
-      <c r="I60" s="11">
         <v>5384742</v>
       </c>
+      <c r="I60" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J60" s="11" t="s">
         <v>31</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -2584,11 +2584,11 @@
       <c r="E61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>31</v>
@@ -2612,44 +2612,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>637042</v>
+        <v>706169</v>
       </c>
       <c r="F62" s="13">
-        <v>706169</v>
+        <v>739359</v>
       </c>
       <c r="G62" s="13">
-        <v>739359</v>
+        <v>777138</v>
       </c>
       <c r="H62" s="13">
-        <v>777138</v>
+        <v>9364796</v>
       </c>
       <c r="I62" s="13">
-        <v>9364796</v>
+        <v>-3548829</v>
       </c>
       <c r="J62" s="13">
-        <v>-3548829</v>
+        <v>763374</v>
       </c>
       <c r="K62" s="13">
-        <v>763374</v>
+        <v>791346</v>
       </c>
       <c r="L62" s="13">
-        <v>791346</v>
+        <v>789615</v>
       </c>
       <c r="M62" s="13">
-        <v>789615</v>
+        <v>759504</v>
       </c>
       <c r="N62" s="13">
-        <v>759504</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>531849</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2664,7 +2664,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2694,7 +2694,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>43</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2746,7 +2746,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2766,26 +2766,26 @@
       <c r="H68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>31</v>
+      <c r="I68" s="9">
+        <v>26673</v>
       </c>
       <c r="J68" s="9">
-        <v>26673</v>
+        <v>15315</v>
       </c>
       <c r="K68" s="9">
-        <v>15315</v>
+        <v>24322</v>
       </c>
       <c r="L68" s="9">
-        <v>24322</v>
+        <v>25838</v>
       </c>
       <c r="M68" s="9">
-        <v>25838</v>
+        <v>27076</v>
       </c>
       <c r="N68" s="9">
-        <v>27076</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58345</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2793,29 +2793,29 @@
         <v>30</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="11">
-        <v>0</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>31</v>
+      <c r="E69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
       </c>
       <c r="I69" s="11">
         <v>0</v>
       </c>
       <c r="J69" s="11">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="K69" s="11">
-        <v>1397</v>
-      </c>
-      <c r="L69" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>31</v>
@@ -2824,7 +2824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2841,12 +2841,12 @@
       <c r="G70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I70" s="9">
+      <c r="H70" s="9">
         <v>668035</v>
       </c>
+      <c r="I70" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J70" s="9" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>35</v>
       </c>
@@ -2892,17 +2892,17 @@
       <c r="K71" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L71" s="11" t="s">
-        <v>31</v>
+      <c r="L71" s="11">
+        <v>0</v>
       </c>
       <c r="M71" s="11">
         <v>0</v>
       </c>
-      <c r="N71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2911,37 +2911,37 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>98280</v>
+        <v>74279</v>
       </c>
       <c r="F72" s="9">
-        <v>74279</v>
+        <v>116983</v>
       </c>
       <c r="G72" s="9">
-        <v>116983</v>
-      </c>
-      <c r="H72" s="9">
         <v>127138</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>31</v>
+      <c r="H72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="9">
+        <v>140371</v>
       </c>
       <c r="J72" s="9">
-        <v>140371</v>
+        <v>86136</v>
       </c>
       <c r="K72" s="9">
-        <v>86136</v>
+        <v>92241</v>
       </c>
       <c r="L72" s="9">
-        <v>92241</v>
+        <v>122544</v>
       </c>
       <c r="M72" s="9">
-        <v>122544</v>
+        <v>57971</v>
       </c>
       <c r="N72" s="9">
-        <v>57971</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>109470</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2950,20 +2950,20 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>27274</v>
+        <v>26557</v>
       </c>
       <c r="F73" s="11">
-        <v>26557</v>
+        <v>25741</v>
       </c>
       <c r="G73" s="11">
-        <v>25741</v>
+        <v>16844</v>
       </c>
       <c r="H73" s="11">
-        <v>16844</v>
-      </c>
-      <c r="I73" s="11">
         <v>115608</v>
       </c>
+      <c r="I73" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J73" s="11" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>38</v>
       </c>
@@ -2991,11 +2991,11 @@
       <c r="E74" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0</v>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>31</v>
@@ -3019,44 +3019,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>125554</v>
+        <v>100836</v>
       </c>
       <c r="F75" s="13">
-        <v>100836</v>
+        <v>142724</v>
       </c>
       <c r="G75" s="13">
-        <v>142724</v>
+        <v>143982</v>
       </c>
       <c r="H75" s="13">
-        <v>143982</v>
+        <v>783643</v>
       </c>
       <c r="I75" s="13">
-        <v>783643</v>
+        <v>167044</v>
       </c>
       <c r="J75" s="13">
-        <v>167044</v>
+        <v>102848</v>
       </c>
       <c r="K75" s="13">
-        <v>102848</v>
+        <v>116563</v>
       </c>
       <c r="L75" s="13">
-        <v>116563</v>
+        <v>148382</v>
       </c>
       <c r="M75" s="13">
-        <v>148382</v>
+        <v>85047</v>
       </c>
       <c r="N75" s="13">
-        <v>85047</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167815</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3071,7 +3071,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3086,7 +3086,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3101,7 +3101,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>44</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3153,7 +3153,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3173,26 +3173,26 @@
       <c r="H81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>31</v>
+      <c r="I81" s="9">
+        <v>1516116</v>
       </c>
       <c r="J81" s="9">
-        <v>1516116</v>
+        <v>2370371</v>
       </c>
       <c r="K81" s="9">
-        <v>2370371</v>
+        <v>1486802</v>
       </c>
       <c r="L81" s="9">
-        <v>1486802</v>
+        <v>3659791</v>
       </c>
       <c r="M81" s="9">
-        <v>3659791</v>
+        <v>3852221</v>
       </c>
       <c r="N81" s="9">
-        <v>3852221</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3914252</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3218,11 +3218,11 @@
       <c r="J82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K82" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L82" s="11">
-        <v>0</v>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M82" s="11" t="s">
         <v>31</v>
@@ -3231,7 +3231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>35</v>
       </c>
@@ -3302,14 +3302,14 @@
       <c r="L84" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M84" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M84" s="11">
+        <v>0</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>36</v>
       </c>
@@ -3318,37 +3318,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>1242501</v>
+        <v>2932462</v>
       </c>
       <c r="F85" s="9">
-        <v>2932462</v>
+        <v>2725380</v>
       </c>
       <c r="G85" s="9">
-        <v>2725380</v>
-      </c>
-      <c r="H85" s="9">
         <v>5323523</v>
       </c>
+      <c r="H85" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I85" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>31</v>
+      <c r="J85" s="9">
+        <v>8082243</v>
       </c>
       <c r="K85" s="9">
-        <v>8082243</v>
+        <v>7874425</v>
       </c>
       <c r="L85" s="9">
-        <v>7874425</v>
+        <v>4094209</v>
       </c>
       <c r="M85" s="9">
-        <v>4094209</v>
+        <v>17171763</v>
       </c>
       <c r="N85" s="9">
-        <v>17171763</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7981852</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>37</v>
       </c>
@@ -3357,20 +3357,20 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>1110927</v>
+        <v>869150</v>
       </c>
       <c r="F86" s="11">
-        <v>869150</v>
+        <v>1043168</v>
       </c>
       <c r="G86" s="11">
-        <v>1043168</v>
+        <v>1230723</v>
       </c>
       <c r="H86" s="11">
-        <v>1230723</v>
-      </c>
-      <c r="I86" s="11">
         <v>1295275</v>
       </c>
+      <c r="I86" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J86" s="11" t="s">
         <v>31</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -3426,44 +3426,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>2353428</v>
+        <v>3801612</v>
       </c>
       <c r="F88" s="13">
-        <v>3801612</v>
+        <v>3768548</v>
       </c>
       <c r="G88" s="13">
-        <v>3768548</v>
+        <v>6554246</v>
       </c>
       <c r="H88" s="13">
-        <v>6554246</v>
+        <v>1295275</v>
       </c>
       <c r="I88" s="13">
-        <v>1295275</v>
+        <v>1516116</v>
       </c>
       <c r="J88" s="13">
-        <v>1516116</v>
+        <v>10452614</v>
       </c>
       <c r="K88" s="13">
-        <v>10452614</v>
+        <v>9361227</v>
       </c>
       <c r="L88" s="13">
-        <v>9361227</v>
+        <v>7754000</v>
       </c>
       <c r="M88" s="13">
-        <v>7754000</v>
+        <v>21023984</v>
       </c>
       <c r="N88" s="13">
-        <v>21023984</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11896104</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3478,7 +3478,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3493,7 +3493,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3508,7 +3508,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>45</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3560,7 +3560,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3580,26 +3580,26 @@
       <c r="H94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>31</v>
+      <c r="I94" s="9">
+        <v>47391934</v>
       </c>
       <c r="J94" s="9">
-        <v>47391934</v>
+        <v>53518730</v>
       </c>
       <c r="K94" s="9">
-        <v>53518730</v>
+        <v>69920472</v>
       </c>
       <c r="L94" s="9">
-        <v>69920472</v>
+        <v>63819927</v>
       </c>
       <c r="M94" s="9">
-        <v>63819927</v>
+        <v>52758170</v>
       </c>
       <c r="N94" s="9">
-        <v>52758170</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39882042</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3607,29 +3607,29 @@
         <v>39</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>31</v>
+      <c r="E95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
       </c>
       <c r="I95" s="11">
         <v>0</v>
       </c>
       <c r="J95" s="11">
-        <v>0</v>
+        <v>960986</v>
       </c>
       <c r="K95" s="11">
-        <v>960986</v>
-      </c>
-      <c r="L95" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>31</v>
@@ -3638,7 +3638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3655,12 +3655,12 @@
       <c r="G96" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I96" s="9">
+      <c r="H96" s="9">
         <v>50686399</v>
       </c>
+      <c r="I96" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J96" s="9" t="s">
         <v>31</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>35</v>
       </c>
@@ -3709,14 +3709,14 @@
       <c r="L97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>36</v>
       </c>
@@ -3725,37 +3725,37 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>10126338</v>
+        <v>12070198</v>
       </c>
       <c r="F98" s="9">
-        <v>12070198</v>
+        <v>21487431</v>
       </c>
       <c r="G98" s="9">
-        <v>21487431</v>
-      </c>
-      <c r="H98" s="9">
         <v>24902481</v>
       </c>
-      <c r="I98" s="9" t="s">
-        <v>31</v>
+      <c r="H98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" s="9">
+        <v>83469482</v>
       </c>
       <c r="J98" s="9">
-        <v>83469482</v>
+        <v>32240891</v>
       </c>
       <c r="K98" s="9">
-        <v>32240891</v>
+        <v>43932227</v>
       </c>
       <c r="L98" s="9">
-        <v>43932227</v>
+        <v>63424177</v>
       </c>
       <c r="M98" s="9">
-        <v>63424177</v>
+        <v>39692623</v>
       </c>
       <c r="N98" s="9">
-        <v>39692623</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37847843</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>37</v>
       </c>
@@ -3764,20 +3764,20 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>16046862</v>
+        <v>23326921</v>
       </c>
       <c r="F99" s="11">
-        <v>23326921</v>
+        <v>31310470</v>
       </c>
       <c r="G99" s="11">
-        <v>31310470</v>
+        <v>36530402</v>
       </c>
       <c r="H99" s="11">
-        <v>36530402</v>
-      </c>
-      <c r="I99" s="11">
         <v>40543660</v>
       </c>
+      <c r="I99" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J99" s="11" t="s">
         <v>31</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>38</v>
       </c>
@@ -3805,11 +3805,11 @@
       <c r="E100" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" s="9">
-        <v>0</v>
+      <c r="F100" s="9">
+        <v>0</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>31</v>
@@ -3833,44 +3833,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>26173200</v>
+        <v>35397119</v>
       </c>
       <c r="F101" s="13">
-        <v>35397119</v>
+        <v>52797901</v>
       </c>
       <c r="G101" s="13">
-        <v>52797901</v>
+        <v>61432883</v>
       </c>
       <c r="H101" s="13">
-        <v>61432883</v>
+        <v>91230059</v>
       </c>
       <c r="I101" s="13">
-        <v>91230059</v>
+        <v>130861416</v>
       </c>
       <c r="J101" s="13">
-        <v>130861416</v>
+        <v>86720607</v>
       </c>
       <c r="K101" s="13">
-        <v>86720607</v>
+        <v>113852699</v>
       </c>
       <c r="L101" s="13">
-        <v>113852699</v>
+        <v>127244104</v>
       </c>
       <c r="M101" s="13">
-        <v>127244104</v>
+        <v>92450793</v>
       </c>
       <c r="N101" s="13">
-        <v>92450793</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>77729885</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3885,7 +3885,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3900,7 +3900,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3915,7 +3915,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>46</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3967,7 +3967,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3987,26 +3987,26 @@
       <c r="H107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I107" s="9" t="s">
-        <v>31</v>
+      <c r="I107" s="9">
+        <v>46536763</v>
       </c>
       <c r="J107" s="9">
-        <v>46536763</v>
+        <v>54402299</v>
       </c>
       <c r="K107" s="9">
-        <v>54402299</v>
+        <v>67747483</v>
       </c>
       <c r="L107" s="9">
-        <v>67747483</v>
+        <v>63627497</v>
       </c>
       <c r="M107" s="9">
-        <v>63627497</v>
+        <v>52696139</v>
       </c>
       <c r="N107" s="9">
-        <v>52696139</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35545494</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -4014,29 +4014,29 @@
         <v>39</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
+      <c r="E108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="11">
         <v>84942</v>
       </c>
-      <c r="F108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="11">
-        <v>84942</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>31</v>
+      <c r="G108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
       </c>
       <c r="I108" s="11">
         <v>0</v>
       </c>
       <c r="J108" s="11">
-        <v>0</v>
+        <v>748873</v>
       </c>
       <c r="K108" s="11">
-        <v>748873</v>
-      </c>
-      <c r="L108" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M108" s="11" t="s">
         <v>31</v>
@@ -4045,7 +4045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -4062,12 +4062,12 @@
       <c r="G109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="9">
+      <c r="H109" s="9">
         <v>47960036</v>
       </c>
+      <c r="I109" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J109" s="9" t="s">
         <v>31</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
@@ -4116,14 +4116,14 @@
       <c r="L110" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M110" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>36</v>
       </c>
@@ -4132,37 +4132,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>8037460</v>
+        <v>12277280</v>
       </c>
       <c r="F111" s="9">
-        <v>12277280</v>
+        <v>18889287</v>
       </c>
       <c r="G111" s="9">
-        <v>18889287</v>
-      </c>
-      <c r="H111" s="9">
         <v>21660674</v>
       </c>
-      <c r="I111" s="9" t="s">
-        <v>31</v>
+      <c r="H111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="9">
+        <v>77065117</v>
       </c>
       <c r="J111" s="9">
-        <v>77065117</v>
+        <v>36094354</v>
       </c>
       <c r="K111" s="9">
-        <v>36094354</v>
+        <v>47712443</v>
       </c>
       <c r="L111" s="9">
-        <v>47712443</v>
+        <v>50346623</v>
       </c>
       <c r="M111" s="9">
-        <v>50346623</v>
+        <v>48882534</v>
       </c>
       <c r="N111" s="9">
-        <v>48882534</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31059826</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>37</v>
       </c>
@@ -4171,20 +4171,20 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>16143320</v>
+        <v>23152903</v>
       </c>
       <c r="F112" s="11">
-        <v>23152903</v>
+        <v>31122915</v>
       </c>
       <c r="G112" s="11">
-        <v>31122915</v>
+        <v>36465850</v>
       </c>
       <c r="H112" s="11">
-        <v>36465850</v>
-      </c>
-      <c r="I112" s="11">
         <v>40323735</v>
       </c>
+      <c r="I112" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J112" s="11" t="s">
         <v>31</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>38</v>
       </c>
@@ -4212,11 +4212,11 @@
       <c r="E113" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0</v>
+      <c r="F113" s="9">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>31</v>
@@ -4240,44 +4240,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>24265722</v>
+        <v>35430183</v>
       </c>
       <c r="F114" s="13">
-        <v>35430183</v>
+        <v>50097144</v>
       </c>
       <c r="G114" s="13">
-        <v>50097144</v>
+        <v>58126524</v>
       </c>
       <c r="H114" s="13">
-        <v>58126524</v>
+        <v>88283771</v>
       </c>
       <c r="I114" s="13">
-        <v>88283771</v>
+        <v>123601880</v>
       </c>
       <c r="J114" s="13">
-        <v>123601880</v>
+        <v>91245526</v>
       </c>
       <c r="K114" s="13">
-        <v>91245526</v>
+        <v>115459926</v>
       </c>
       <c r="L114" s="13">
-        <v>115459926</v>
+        <v>113974120</v>
       </c>
       <c r="M114" s="13">
-        <v>113974120</v>
+        <v>101578673</v>
       </c>
       <c r="N114" s="13">
-        <v>101578673</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66605320</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4292,7 +4292,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4322,7 +4322,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4374,7 +4374,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4394,26 +4394,26 @@
       <c r="H120" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I120" s="9" t="s">
-        <v>31</v>
+      <c r="I120" s="9">
+        <v>2370371</v>
       </c>
       <c r="J120" s="9">
-        <v>2370371</v>
+        <v>1486802</v>
       </c>
       <c r="K120" s="9">
-        <v>1486802</v>
+        <v>3659791</v>
       </c>
       <c r="L120" s="9">
-        <v>3659791</v>
+        <v>3852221</v>
       </c>
       <c r="M120" s="9">
-        <v>3852221</v>
+        <v>3914252</v>
       </c>
       <c r="N120" s="9">
-        <v>3914252</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8250800</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4421,29 +4421,29 @@
         <v>39</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
-        <v>0</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" s="11">
-        <v>0</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>31</v>
+      <c r="E121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="11">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
       </c>
       <c r="I121" s="11">
         <v>0</v>
       </c>
       <c r="J121" s="11">
-        <v>0</v>
+        <v>212113</v>
       </c>
       <c r="K121" s="11">
-        <v>212113</v>
-      </c>
-      <c r="L121" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="M121" s="11" t="s">
         <v>31</v>
@@ -4452,7 +4452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4469,12 +4469,12 @@
       <c r="G122" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I122" s="9">
+      <c r="H122" s="9">
         <v>8049886</v>
       </c>
+      <c r="I122" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J122" s="9" t="s">
         <v>31</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>35</v>
       </c>
@@ -4520,17 +4520,17 @@
       <c r="K123" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L123" s="11" t="s">
-        <v>31</v>
+      <c r="L123" s="11">
+        <v>0</v>
       </c>
       <c r="M123" s="11">
         <v>0</v>
       </c>
-      <c r="N123" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -4539,37 +4539,37 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>2932462</v>
+        <v>2725380</v>
       </c>
       <c r="F124" s="9">
-        <v>2725380</v>
+        <v>5323524</v>
       </c>
       <c r="G124" s="9">
-        <v>5323524</v>
-      </c>
-      <c r="H124" s="9">
         <v>8565330</v>
       </c>
-      <c r="I124" s="9" t="s">
-        <v>31</v>
+      <c r="H124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="9">
+        <v>11727889</v>
       </c>
       <c r="J124" s="9">
-        <v>11727889</v>
+        <v>7874425</v>
       </c>
       <c r="K124" s="9">
-        <v>7874425</v>
+        <v>4094209</v>
       </c>
       <c r="L124" s="9">
-        <v>4094209</v>
+        <v>17171763</v>
       </c>
       <c r="M124" s="9">
-        <v>17171763</v>
+        <v>7981852</v>
       </c>
       <c r="N124" s="9">
-        <v>7981852</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14769869</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>37</v>
       </c>
@@ -4578,20 +4578,20 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>869150</v>
+        <v>1043168</v>
       </c>
       <c r="F125" s="11">
-        <v>1043168</v>
+        <v>1230723</v>
       </c>
       <c r="G125" s="11">
-        <v>1230723</v>
+        <v>1295275</v>
       </c>
       <c r="H125" s="11">
-        <v>1295275</v>
-      </c>
-      <c r="I125" s="11">
         <v>1515200</v>
       </c>
+      <c r="I125" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J125" s="11" t="s">
         <v>31</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>38</v>
       </c>
@@ -4619,11 +4619,11 @@
       <c r="E126" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="9">
-        <v>0</v>
+      <c r="F126" s="9">
+        <v>0</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>31</v>
@@ -4647,44 +4647,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>3801612</v>
+        <v>3768548</v>
       </c>
       <c r="F127" s="13">
-        <v>3768548</v>
+        <v>6554247</v>
       </c>
       <c r="G127" s="13">
-        <v>6554247</v>
+        <v>9860605</v>
       </c>
       <c r="H127" s="13">
-        <v>9860605</v>
+        <v>9565086</v>
       </c>
       <c r="I127" s="13">
-        <v>9565086</v>
+        <v>14098260</v>
       </c>
       <c r="J127" s="13">
-        <v>14098260</v>
+        <v>9573340</v>
       </c>
       <c r="K127" s="13">
-        <v>9573340</v>
+        <v>7754000</v>
       </c>
       <c r="L127" s="13">
-        <v>7754000</v>
+        <v>21023984</v>
       </c>
       <c r="M127" s="13">
-        <v>21023984</v>
+        <v>11896104</v>
       </c>
       <c r="N127" s="13">
-        <v>11896104</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23020669</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4699,7 +4699,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4714,7 +4714,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4729,7 +4729,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>48</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4781,7 +4781,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4801,26 +4801,26 @@
       <c r="H133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="9" t="s">
-        <v>31</v>
+      <c r="I133" s="9">
+        <v>13106359</v>
       </c>
       <c r="J133" s="9">
-        <v>13106359</v>
+        <v>88867806</v>
       </c>
       <c r="K133" s="9">
-        <v>88867806</v>
+        <v>97081423</v>
       </c>
       <c r="L133" s="9">
-        <v>97081423</v>
+        <v>150472453</v>
       </c>
       <c r="M133" s="9">
-        <v>150472453</v>
+        <v>149091300</v>
       </c>
       <c r="N133" s="9">
-        <v>149091300</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>144565372</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>35</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>36</v>
       </c>
@@ -4946,37 +4946,37 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>760244</v>
+        <v>29837831</v>
       </c>
       <c r="F137" s="9">
-        <v>29837831</v>
+        <v>36691124</v>
       </c>
       <c r="G137" s="9">
-        <v>36691124</v>
-      </c>
-      <c r="H137" s="9">
         <v>45506809</v>
       </c>
+      <c r="H137" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I137" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J137" s="9" t="s">
-        <v>31</v>
+      <c r="J137" s="9">
+        <v>83549230</v>
       </c>
       <c r="K137" s="9">
-        <v>83549230</v>
+        <v>91418513</v>
       </c>
       <c r="L137" s="9">
-        <v>91418513</v>
+        <v>44386000</v>
       </c>
       <c r="M137" s="9">
-        <v>44386000</v>
+        <v>140127326</v>
       </c>
       <c r="N137" s="9">
-        <v>140127326</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137686981</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>37</v>
       </c>
@@ -4985,20 +4985,20 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>869007</v>
+        <v>31867346</v>
       </c>
       <c r="F138" s="11">
-        <v>31867346</v>
+        <v>39280340</v>
       </c>
       <c r="G138" s="11">
-        <v>39280340</v>
+        <v>47811779</v>
       </c>
       <c r="H138" s="11">
-        <v>47811779</v>
-      </c>
-      <c r="I138" s="11">
         <v>76898302</v>
       </c>
+      <c r="I138" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J138" s="11" t="s">
         <v>31</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5030,7 +5030,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5045,7 +5045,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5060,7 +5060,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>51</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5112,7 +5112,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>29</v>
       </c>
@@ -5132,26 +5132,26 @@
       <c r="H144" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I144" s="9" t="s">
-        <v>31</v>
+      <c r="I144" s="9">
+        <v>-10712482</v>
       </c>
       <c r="J144" s="9">
-        <v>-10712482</v>
+        <v>123984678</v>
       </c>
       <c r="K144" s="9">
-        <v>123984678</v>
+        <v>152250916</v>
       </c>
       <c r="L144" s="9">
-        <v>152250916</v>
+        <v>147576221</v>
       </c>
       <c r="M144" s="9">
-        <v>147576221</v>
+        <v>134135488</v>
       </c>
       <c r="N144" s="9">
-        <v>134135488</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128226120</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>32</v>
       </c>
@@ -5174,12 +5174,12 @@
       <c r="I145" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J145" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K145" s="11">
+      <c r="J145" s="11">
         <v>151718661</v>
       </c>
+      <c r="K145" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L145" s="11" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>33</v>
       </c>
@@ -5207,12 +5207,12 @@
       <c r="G146" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H146" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="9">
+      <c r="H146" s="9">
         <v>12955682</v>
       </c>
+      <c r="I146" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J146" s="9" t="s">
         <v>31</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>36</v>
       </c>
@@ -5238,37 +5238,37 @@
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
-        <v>-7853393</v>
+        <v>51620427</v>
       </c>
       <c r="F147" s="11">
-        <v>51620427</v>
+        <v>63324790</v>
       </c>
       <c r="G147" s="11">
-        <v>63324790</v>
-      </c>
-      <c r="H147" s="11">
         <v>79540821</v>
       </c>
-      <c r="I147" s="11" t="s">
-        <v>31</v>
+      <c r="H147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="11">
+        <v>88254369</v>
       </c>
       <c r="J147" s="11">
-        <v>88254369</v>
+        <v>123439404</v>
       </c>
       <c r="K147" s="11">
-        <v>123439404</v>
+        <v>126528174</v>
       </c>
       <c r="L147" s="11">
-        <v>126528174</v>
+        <v>163052540</v>
       </c>
       <c r="M147" s="11">
-        <v>163052540</v>
+        <v>131064072</v>
       </c>
       <c r="N147" s="11">
-        <v>131064072</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>124668442</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>37</v>
       </c>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>-18607258</v>
+        <v>52112641</v>
       </c>
       <c r="F148" s="9">
-        <v>52112641</v>
+        <v>71120881</v>
       </c>
       <c r="G148" s="9">
-        <v>71120881</v>
+        <v>78506316</v>
       </c>
       <c r="H148" s="9">
-        <v>78506316</v>
-      </c>
-      <c r="I148" s="9">
         <v>7582025</v>
       </c>
+      <c r="I148" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J148" s="9" t="s">
         <v>31</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5322,7 +5322,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5337,7 +5337,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5352,7 +5352,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>52</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5404,7 +5404,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>29</v>
       </c>
@@ -5424,26 +5424,26 @@
       <c r="H154" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I154" s="9" t="s">
-        <v>31</v>
+      <c r="I154" s="9">
+        <v>-10408059</v>
       </c>
       <c r="J154" s="9">
-        <v>-10408059</v>
+        <v>122800406</v>
       </c>
       <c r="K154" s="9">
-        <v>122800406</v>
+        <v>150470380</v>
       </c>
       <c r="L154" s="9">
-        <v>150470380</v>
+        <v>147648843</v>
       </c>
       <c r="M154" s="9">
-        <v>147648843</v>
+        <v>134400812</v>
       </c>
       <c r="N154" s="9">
-        <v>134400812</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127057099</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>32</v>
       </c>
@@ -5451,14 +5451,14 @@
         <v>49</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11">
+      <c r="E155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="11">
         <v>50470588</v>
       </c>
-      <c r="F155" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" s="11">
-        <v>50470588</v>
+      <c r="G155" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>31</v>
@@ -5466,12 +5466,12 @@
       <c r="I155" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J155" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K155" s="11">
+      <c r="J155" s="11">
         <v>151685842</v>
       </c>
+      <c r="K155" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L155" s="11" t="s">
         <v>31</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>33</v>
       </c>
@@ -5499,12 +5499,12 @@
       <c r="G156" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I156" s="9">
+      <c r="H156" s="9">
         <v>12050097</v>
       </c>
+      <c r="I156" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J156" s="9" t="s">
         <v>31</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>36</v>
       </c>
@@ -5569,37 +5569,37 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>32587292</v>
+        <v>47618287</v>
       </c>
       <c r="F158" s="9">
-        <v>47618287</v>
+        <v>63682415</v>
       </c>
       <c r="G158" s="9">
-        <v>63682415</v>
-      </c>
-      <c r="H158" s="9">
         <v>71505544</v>
       </c>
-      <c r="I158" s="9" t="s">
-        <v>31</v>
+      <c r="H158" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="9">
+        <v>83548932</v>
       </c>
       <c r="J158" s="9">
-        <v>83548932</v>
+        <v>114431586</v>
       </c>
       <c r="K158" s="9">
-        <v>114431586</v>
+        <v>139874887</v>
       </c>
       <c r="L158" s="9">
-        <v>139874887</v>
+        <v>140367581</v>
       </c>
       <c r="M158" s="9">
-        <v>140367581</v>
+        <v>133041935</v>
       </c>
       <c r="N158" s="9">
-        <v>133041935</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123209763</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>37</v>
       </c>
@@ -5608,20 +5608,20 @@
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
-        <v>41529964</v>
+        <v>51641165</v>
       </c>
       <c r="F159" s="11">
-        <v>51641165</v>
+        <v>70564063</v>
       </c>
       <c r="G159" s="11">
-        <v>70564063</v>
+        <v>76897293</v>
       </c>
       <c r="H159" s="11">
-        <v>76897293</v>
-      </c>
-      <c r="I159" s="11">
         <v>7488518</v>
       </c>
+      <c r="I159" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J159" s="11" t="s">
         <v>31</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5653,7 +5653,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5668,7 +5668,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5683,7 +5683,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>53</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5735,7 +5735,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>29</v>
       </c>
@@ -5755,26 +5755,26 @@
       <c r="H165" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I165" s="9" t="s">
-        <v>31</v>
+      <c r="I165" s="9">
+        <v>88867806</v>
       </c>
       <c r="J165" s="9">
-        <v>88867806</v>
+        <v>97081423</v>
       </c>
       <c r="K165" s="9">
-        <v>97081423</v>
+        <v>150472453</v>
       </c>
       <c r="L165" s="9">
-        <v>150472453</v>
+        <v>149091300</v>
       </c>
       <c r="M165" s="9">
-        <v>149091300</v>
+        <v>144565372</v>
       </c>
       <c r="N165" s="9">
-        <v>144565372</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>141414003</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>32</v>
       </c>
@@ -5797,12 +5797,12 @@
       <c r="I166" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J166" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K166" s="11">
+      <c r="J166" s="11">
         <v>151834646</v>
       </c>
+      <c r="K166" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L166" s="11" t="s">
         <v>31</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>33</v>
       </c>
@@ -5830,12 +5830,12 @@
       <c r="G167" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H167" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I167" s="9">
+      <c r="H167" s="9">
         <v>12050096</v>
       </c>
+      <c r="I167" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J167" s="9" t="s">
         <v>31</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>36</v>
       </c>
@@ -5863,35 +5863,35 @@
       <c r="E168" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>31</v>
+      <c r="F168" s="11">
+        <v>45506817</v>
       </c>
       <c r="G168" s="11">
-        <v>45506817</v>
-      </c>
-      <c r="H168" s="11">
         <v>67370338</v>
       </c>
-      <c r="I168" s="11" t="s">
-        <v>31</v>
+      <c r="H168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="11">
+        <v>83549230</v>
       </c>
       <c r="J168" s="11">
-        <v>83549230</v>
+        <v>91418513</v>
       </c>
       <c r="K168" s="11">
-        <v>91418513</v>
+        <v>44386000</v>
       </c>
       <c r="L168" s="11">
-        <v>44386000</v>
+        <v>140127326</v>
       </c>
       <c r="M168" s="11">
-        <v>140127326</v>
+        <v>137686981</v>
       </c>
       <c r="N168" s="11">
-        <v>137686981</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134921613</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>37</v>
       </c>
@@ -5902,18 +5902,18 @@
       <c r="E169" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>31</v>
+      <c r="F169" s="9">
+        <v>47811779</v>
       </c>
       <c r="G169" s="9">
-        <v>47811779</v>
+        <v>76898302</v>
       </c>
       <c r="H169" s="9">
-        <v>76898302</v>
-      </c>
-      <c r="I169" s="9">
         <v>13106359</v>
       </c>
+      <c r="I169" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J169" s="9" t="s">
         <v>31</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5945,7 +5945,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5960,7 +5960,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5975,7 +5975,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
         <v>54</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6027,44 +6027,44 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>72328</v>
+        <v>51128</v>
       </c>
       <c r="F175" s="9">
-        <v>51128</v>
+        <v>-33025</v>
       </c>
       <c r="G175" s="9">
-        <v>-33025</v>
+        <v>35102</v>
       </c>
       <c r="H175" s="9">
-        <v>35102</v>
+        <v>56806</v>
       </c>
       <c r="I175" s="9">
-        <v>56806</v>
+        <v>33540</v>
       </c>
       <c r="J175" s="9">
-        <v>33540</v>
+        <v>18546</v>
       </c>
       <c r="K175" s="9">
-        <v>18546</v>
+        <v>25894</v>
       </c>
       <c r="L175" s="9">
-        <v>25894</v>
+        <v>121106</v>
       </c>
       <c r="M175" s="9">
-        <v>121106</v>
+        <v>78000</v>
       </c>
       <c r="N175" s="9">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19273</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>56</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>57</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>58</v>
       </c>
@@ -6175,44 +6175,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>205539</v>
+        <v>159707</v>
       </c>
       <c r="F179" s="9">
-        <v>159707</v>
+        <v>4372</v>
       </c>
       <c r="G179" s="9">
-        <v>4372</v>
+        <v>247036</v>
       </c>
       <c r="H179" s="9">
-        <v>247036</v>
+        <v>133455</v>
       </c>
       <c r="I179" s="9">
-        <v>133455</v>
+        <v>538808</v>
       </c>
       <c r="J179" s="9">
-        <v>538808</v>
+        <v>956296</v>
       </c>
       <c r="K179" s="9">
-        <v>956296</v>
+        <v>576744</v>
       </c>
       <c r="L179" s="9">
-        <v>576744</v>
+        <v>120329</v>
       </c>
       <c r="M179" s="9">
-        <v>120329</v>
+        <v>548296</v>
       </c>
       <c r="N179" s="9">
-        <v>548296</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1905095</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>60</v>
       </c>
@@ -6249,81 +6249,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>190390</v>
+        <v>201964</v>
       </c>
       <c r="F181" s="9">
-        <v>201964</v>
+        <v>422615</v>
       </c>
       <c r="G181" s="9">
-        <v>422615</v>
+        <v>199831</v>
       </c>
       <c r="H181" s="9">
-        <v>199831</v>
+        <v>256324</v>
       </c>
       <c r="I181" s="9">
-        <v>256324</v>
+        <v>228298</v>
       </c>
       <c r="J181" s="9">
-        <v>228298</v>
+        <v>359063</v>
       </c>
       <c r="K181" s="9">
-        <v>359063</v>
+        <v>326098</v>
       </c>
       <c r="L181" s="9">
-        <v>326098</v>
+        <v>467279</v>
       </c>
       <c r="M181" s="9">
-        <v>467279</v>
+        <v>465364</v>
       </c>
       <c r="N181" s="9">
-        <v>465364</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>371686</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>492845</v>
+        <v>385892</v>
       </c>
       <c r="F182" s="11">
-        <v>385892</v>
+        <v>467311</v>
       </c>
       <c r="G182" s="11">
-        <v>467311</v>
+        <v>526145</v>
       </c>
       <c r="H182" s="11">
-        <v>526145</v>
+        <v>736420</v>
       </c>
       <c r="I182" s="11">
-        <v>736420</v>
+        <v>555414</v>
       </c>
       <c r="J182" s="11">
-        <v>555414</v>
+        <v>798412</v>
       </c>
       <c r="K182" s="11">
-        <v>798412</v>
+        <v>974604</v>
       </c>
       <c r="L182" s="11">
-        <v>974604</v>
+        <v>1202188</v>
       </c>
       <c r="M182" s="11">
-        <v>1202188</v>
+        <v>939465</v>
       </c>
       <c r="N182" s="11">
-        <v>939465</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1093076</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>63</v>
       </c>
@@ -6360,81 +6360,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>212364</v>
+        <v>133640</v>
       </c>
       <c r="F184" s="11">
-        <v>133640</v>
+        <v>248408</v>
       </c>
       <c r="G184" s="11">
-        <v>248408</v>
+        <v>174228</v>
       </c>
       <c r="H184" s="11">
-        <v>174228</v>
+        <v>309182</v>
       </c>
       <c r="I184" s="11">
-        <v>309182</v>
+        <v>231553</v>
       </c>
       <c r="J184" s="11">
-        <v>231553</v>
+        <v>519342</v>
       </c>
       <c r="K184" s="11">
-        <v>519342</v>
+        <v>400049</v>
       </c>
       <c r="L184" s="11">
-        <v>400049</v>
+        <v>803908</v>
       </c>
       <c r="M184" s="11">
-        <v>803908</v>
+        <v>164542</v>
       </c>
       <c r="N184" s="11">
-        <v>164542</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-372729</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15">
-        <v>1173466</v>
+        <v>932331</v>
       </c>
       <c r="F185" s="15">
-        <v>932331</v>
+        <v>1109681</v>
       </c>
       <c r="G185" s="15">
-        <v>1109681</v>
+        <v>1182342</v>
       </c>
       <c r="H185" s="15">
-        <v>1182342</v>
+        <v>1492187</v>
       </c>
       <c r="I185" s="15">
-        <v>1492187</v>
+        <v>1587613</v>
       </c>
       <c r="J185" s="15">
-        <v>1587613</v>
+        <v>2651659</v>
       </c>
       <c r="K185" s="15">
-        <v>2651659</v>
+        <v>2303389</v>
       </c>
       <c r="L185" s="15">
-        <v>2303389</v>
+        <v>2714810</v>
       </c>
       <c r="M185" s="15">
-        <v>2714810</v>
+        <v>2195667</v>
       </c>
       <c r="N185" s="15">
-        <v>2195667</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3016401</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6449,7 +6449,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6464,7 +6464,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6479,7 +6479,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
         <v>65</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6511,7 +6511,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>66</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>68</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>70</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>72</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>74</v>
       </c>
@@ -6582,31 +6582,31 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>79</v>
@@ -6615,29 +6615,29 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>83</v>
       </c>
@@ -6648,20 +6648,20 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>86</v>
